--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/打鍵後のUCL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A4FC88C0-88E7-4424-BE68-2F240618F48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A41E9E-27A2-4B17-BE91-3373ADAF55A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C591-6D55-4A4F-967B-3F3745755E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="315">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -3399,66 +3399,87 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3468,25 +3489,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3540,35 +3570,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3579,15 +3624,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3597,48 +3633,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3657,6 +3657,135 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3666,137 +3795,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3834,59 +3882,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4287,7 +4287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F9333B-AB08-4AA6-B1AB-3242D8418782}">
   <dimension ref="B1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="T7" sqref="T7:T14"/>
     </sheetView>
   </sheetViews>
@@ -4317,26 +4317,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4349,37 +4349,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="105"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="113">
         <v>45069</v>
       </c>
-      <c r="M3" s="109"/>
+      <c r="M3" s="114"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4452,63 +4452,63 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="115" t="s">
+      <c r="R7" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10" spans="2:28" ht="25.2">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="12" spans="2:28" ht="15.6">
       <c r="B12" s="32"/>
@@ -4516,42 +4516,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="99"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="101"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4565,18 +4565,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="101"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="101"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4591,18 +4591,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="101"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="101"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4615,12 +4615,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="112"/>
+      <c r="G25" s="100"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="101"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4767,6 +4767,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4777,21 +4792,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,8 +4812,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K28" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K7" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -4836,59 +4836,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4898,10 +4898,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4916,57 +4916,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="137" t="s">
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="144"/>
+      <c r="D6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="N7" s="124"/>
       <c r="O7" s="124"/>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5037,32 +5037,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116">
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="118"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="125"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5083,32 +5083,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="117" t="s">
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="125">
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="116">
         <v>5</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="125" t="s">
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="148"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="128"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>287</v>
@@ -5136,30 +5136,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="121" t="s">
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="125">
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="116">
         <v>50</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="148"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="128"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>305</v>
@@ -5182,30 +5182,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116">
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="118"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="125"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5226,32 +5226,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="125" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="117" t="s">
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="125">
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="116">
         <v>10</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="125" t="s">
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="148"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="128"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>288</v>
@@ -5277,30 +5277,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="149" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="121" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="125">
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="116">
         <v>50</v>
       </c>
-      <c r="N13" s="126"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="148"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="128"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>307</v>
@@ -5323,30 +5323,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="154" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="117" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116">
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="125"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5365,32 +5365,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="149" t="s">
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="121" t="s">
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="125">
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="116">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="125" t="s">
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="128"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>289</v>
@@ -5416,30 +5416,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="149" t="s">
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="121" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="125">
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="116">
         <v>50</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="148"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="128"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>141</v>
@@ -5462,30 +5462,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="154" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="117" t="s">
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116">
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="118"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="125"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>142</v>
@@ -5504,32 +5504,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="125" t="s">
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="117" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="125">
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="116">
         <v>6</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="125" t="s">
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="148"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="128"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>291</v>
@@ -5555,30 +5555,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="125" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="121" t="s">
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="125">
+      <c r="K19" s="121"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="116">
         <v>50</v>
       </c>
-      <c r="N19" s="126"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="148"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="128"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>143</v>
@@ -5597,30 +5597,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="125" t="s">
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="121" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="125">
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="116">
         <v>50</v>
       </c>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="148"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="128"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>144</v>
@@ -5639,30 +5639,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="116">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="118"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="125"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>145</v>
@@ -5681,32 +5681,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="116">
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="125"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>292</v>
@@ -5732,30 +5732,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="116">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="118"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="125"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>310</v>
@@ -5781,30 +5781,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="116">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="118"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="125"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>146</v>
@@ -5830,30 +5830,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116">
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="125"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>147</v>
@@ -5879,30 +5879,30 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116" t="s">
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117" t="s">
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="116">
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="119">
         <v>50</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="125"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>148</v>
@@ -5925,32 +5925,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="119">
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="126">
         <v>10</v>
       </c>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="116" t="s">
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="118"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="125"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>293</v>
@@ -5976,32 +5976,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
       <c r="M28" s="124">
         <v>4</v>
       </c>
       <c r="N28" s="124"/>
       <c r="O28" s="124"/>
-      <c r="P28" s="119" t="s">
+      <c r="P28" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="120"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="127"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>294</v>
@@ -6027,32 +6027,32 @@
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="124"/>
-      <c r="P29" s="119" t="s">
+      <c r="P29" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="120"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>311</v>
@@ -6078,32 +6078,32 @@
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
       <c r="M30" s="124">
         <v>6</v>
       </c>
       <c r="N30" s="124"/>
       <c r="O30" s="124"/>
-      <c r="P30" s="119" t="s">
+      <c r="P30" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="120"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>295</v>
@@ -6129,32 +6129,32 @@
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="124"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="119" t="s">
+      <c r="P31" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="127"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>149</v>
@@ -6180,30 +6180,30 @@
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="116">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="125"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>150</v>
@@ -6214,40 +6214,44 @@
       <c r="X32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
+      <c r="Y32" s="96">
+        <v>45069</v>
+      </c>
+      <c r="Z32" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="AA32" s="97"/>
     </row>
     <row r="33" spans="3:28" ht="27.6">
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="125" t="s">
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="117" t="s">
+      <c r="H33" s="117"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="125">
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="116">
         <v>4</v>
       </c>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="119" t="s">
+      <c r="N33" s="117"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="120"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="127"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>296</v>
@@ -6273,30 +6277,30 @@
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="121" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="116">
+      <c r="K34" s="121"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="120"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="127"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>151</v>
@@ -6321,30 +6325,30 @@
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="116">
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="118"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="125"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>152</v>
@@ -6355,40 +6359,44 @@
       <c r="X35" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
+      <c r="Y35" s="96">
+        <v>45069</v>
+      </c>
+      <c r="Z35" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="AA35" s="97"/>
     </row>
     <row r="36" spans="3:28" ht="27.6">
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="116">
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="119" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="120"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>297</v>
@@ -6414,30 +6422,30 @@
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="121" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="116">
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="120"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="127"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>153</v>
@@ -6458,30 +6466,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="116">
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="118"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="125"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>154</v>
@@ -6492,40 +6500,44 @@
       <c r="X38" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
+      <c r="Y38" s="96">
+        <v>45069</v>
+      </c>
+      <c r="Z38" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="AA38" s="97"/>
     </row>
     <row r="39" spans="3:28" ht="27.6">
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="125" t="s">
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="121" t="s">
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="125" t="s">
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="125" t="s">
+      <c r="N39" s="117"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="148"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="128"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>298</v>
@@ -6553,32 +6565,32 @@
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="125" t="s">
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="121" t="s">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="125" t="s">
+      <c r="K40" s="121"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="126"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="125" t="s">
+      <c r="N40" s="117"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="148"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="128"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>299</v>
@@ -6602,22 +6614,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="148"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="128"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6628,22 +6640,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="148"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="128"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6654,22 +6666,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="148"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="128"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6680,22 +6692,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="148"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="128"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6706,22 +6718,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="148"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="128"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6732,22 +6744,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="148"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="128"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6758,22 +6770,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="148"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="128"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6784,22 +6796,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="148"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="128"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6810,22 +6822,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="148"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="128"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6836,22 +6848,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="148"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="128"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6862,22 +6874,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="120"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="126"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="127"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6888,22 +6900,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="120"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="127"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6914,22 +6926,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="120"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="127"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6939,22 +6951,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="120"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="127"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6964,155 +6976,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="120"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="127"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="120"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="127"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="119"/>
-      <c r="S57" s="120"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="127"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="120"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="127"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="120"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="126"/>
+      <c r="S59" s="127"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="120"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="126"/>
+      <c r="Q60" s="126"/>
+      <c r="R60" s="126"/>
+      <c r="S60" s="127"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="119"/>
-      <c r="S61" s="120"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="126"/>
+      <c r="P61" s="126"/>
+      <c r="Q61" s="126"/>
+      <c r="R61" s="126"/>
+      <c r="S61" s="127"/>
     </row>
     <row r="62" spans="3:27" ht="14.4" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="153"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="133"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="134"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7129,6 +7141,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7153,274 +7433,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7455,71 +7467,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7536,53 +7548,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7607,28 +7619,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7643,24 +7655,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="169"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="161"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7719,24 +7731,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165" t="s">
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="167"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7795,24 +7807,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="158" t="s">
+      <c r="E12" s="163"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7841,10 +7853,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="172"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7867,10 +7879,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="160"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="164"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8453,22 +8465,22 @@
     </row>
     <row r="37" spans="3:27" ht="14.4" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="153"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="134"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8612,21 +8624,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8643,6 +8640,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8677,71 +8689,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8759,53 +8771,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8830,28 +8842,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8866,24 +8878,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="164"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8942,16 +8954,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="178" t="s">
         <v>121</v>
       </c>
@@ -9023,11 +9035,11 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" s="183"/>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="178" t="s">
         <v>122</v>
       </c>
@@ -9094,24 +9106,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="158" t="s">
+      <c r="H14" s="163"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="164"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9140,10 +9152,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="157"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="172"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9166,10 +9178,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="160"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9752,22 +9764,22 @@
     </row>
     <row r="39" spans="3:27" ht="14.4" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="153"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9893,18 +9905,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9921,12 +9927,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9972,84 +9984,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="141"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="156"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="176">
+      <c r="R3" s="157">
         <v>45069</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10064,75 +10076,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="223" t="s">
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="221" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="221" t="s">
+      <c r="Q5" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221" t="s">
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="221"/>
-      <c r="V5" s="221"/>
-      <c r="W5" s="221" t="s">
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="229"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="194"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="14.4" thickBot="1">
-      <c r="C6" s="220"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="230"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+      <c r="Z6" s="195"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10157,43 +10169,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="215" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="215" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="198"/>
       <c r="P7" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="215" t="s">
+      <c r="Q7" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="216" t="s">
+      <c r="R7" s="197"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="216"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="210"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="207"/>
+      <c r="Z7" s="208"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10208,21 +10220,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="194" t="s">
+      <c r="D8" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="194" t="s">
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197" t="s">
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
       <c r="M8" s="202" t="s">
         <v>19</v>
       </c>
@@ -10259,26 +10271,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="194" t="s">
+      <c r="D9" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="194" t="s">
+      <c r="E9" s="200"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
       <c r="J9" s="202" t="s">
         <v>180</v>
       </c>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
-      <c r="M9" s="218" t="s">
+      <c r="M9" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="203"/>
-      <c r="O9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="205"/>
       <c r="P9" s="67" t="s">
         <v>175</v>
       </c>
@@ -10310,26 +10322,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="190" t="s">
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="201" t="s">
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="214" t="s">
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
       <c r="P10" s="67" t="s">
         <v>175</v>
       </c>
@@ -10343,10 +10355,10 @@
       </c>
       <c r="U10" s="202"/>
       <c r="V10" s="202"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="211"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="212"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>250</v>
@@ -10404,26 +10416,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="194" t="s">
+      <c r="E12" s="200"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="s">
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="205" t="s">
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="67" t="s">
         <v>175</v>
       </c>
@@ -10437,10 +10449,10 @@
       </c>
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="211"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="212"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>251</v>
@@ -10498,26 +10510,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="194" t="s">
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197" t="s">
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="205" t="s">
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
       <c r="P14" s="67" t="s">
         <v>175</v>
       </c>
@@ -10592,26 +10604,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="205" t="s">
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
       <c r="P16" s="67" t="s">
         <v>175</v>
       </c>
@@ -10686,26 +10698,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="194" t="s">
+      <c r="D18" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="194" t="s">
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197" t="s">
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="205" t="s">
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="213" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
       <c r="P18" s="67" t="s">
         <v>175</v>
       </c>
@@ -10780,26 +10792,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="194" t="s">
+      <c r="D20" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="194" t="s">
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197" t="s">
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="205" t="s">
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="213" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
       <c r="P20" s="67" t="s">
         <v>175</v>
       </c>
@@ -10874,26 +10886,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="194" t="s">
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197" t="s">
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="205" t="s">
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
       <c r="P22" s="71" t="s">
         <v>175</v>
       </c>
@@ -10968,26 +10980,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="194" t="s">
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="207" t="s">
+      <c r="H24" s="200"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="219" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="205" t="s">
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
       <c r="P24" s="67" t="s">
         <v>175</v>
       </c>
@@ -11062,26 +11074,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="194" t="s">
+      <c r="E26" s="200"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="201"/>
       <c r="J26" s="202" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="202"/>
       <c r="L26" s="202"/>
-      <c r="M26" s="206" t="s">
+      <c r="M26" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
       <c r="P26" s="67" t="s">
         <v>175</v>
       </c>
@@ -11156,17 +11168,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="194" t="s">
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205" t="s">
+      <c r="H28" s="204"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="213" t="s">
         <v>206</v>
       </c>
       <c r="K28" s="202"/>
@@ -11184,7 +11196,7 @@
       </c>
       <c r="R28" s="202"/>
       <c r="S28" s="202"/>
-      <c r="T28" s="205" t="s">
+      <c r="T28" s="213" t="s">
         <v>208</v>
       </c>
       <c r="U28" s="202"/>
@@ -11250,16 +11262,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="187" t="s">
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="224" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="226"/>
       <c r="J30" s="202" t="s">
         <v>209</v>
       </c>
@@ -11344,39 +11356,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="214" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="190" t="s">
+      <c r="E32" s="221"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="201" t="s">
+      <c r="H32" s="221"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="198" t="s">
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="199"/>
-      <c r="O32" s="200"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="223"/>
       <c r="P32" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="190" t="s">
+      <c r="Q32" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="191"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="198" t="s">
+      <c r="R32" s="221"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="210" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="223"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11395,39 +11407,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="194" t="s">
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197" t="s">
+      <c r="H33" s="200"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198" t="s">
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="210" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="199"/>
-      <c r="O33" s="200"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="223"/>
       <c r="P33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="190" t="s">
+      <c r="Q33" s="214" t="s">
         <v>218</v>
       </c>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="198" t="s">
+      <c r="R33" s="221"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="199"/>
-      <c r="V33" s="200"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="223"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11446,43 +11458,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="194" t="s">
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="190" t="s">
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N34" s="191"/>
-      <c r="O34" s="192"/>
+      <c r="N34" s="221"/>
+      <c r="O34" s="222"/>
       <c r="P34" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="190" t="s">
+      <c r="Q34" s="214" t="s">
         <v>221</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="198" t="s">
+      <c r="R34" s="221"/>
+      <c r="S34" s="222"/>
+      <c r="T34" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="185"/>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="186"/>
+      <c r="U34" s="211"/>
+      <c r="V34" s="223"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="229"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11497,43 +11509,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="187" t="s">
+      <c r="E35" s="225"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190" t="s">
+      <c r="H35" s="225"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="190" t="s">
+      <c r="K35" s="221"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="192"/>
+      <c r="N35" s="221"/>
+      <c r="O35" s="222"/>
       <c r="P35" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="190" t="s">
+      <c r="Q35" s="214" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="191"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="193" t="s">
+      <c r="R35" s="221"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="230" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="185"/>
-      <c r="Y35" s="185"/>
-      <c r="Z35" s="186"/>
+      <c r="U35" s="221"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="227"/>
+      <c r="X35" s="228"/>
+      <c r="Y35" s="228"/>
+      <c r="Z35" s="229"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12338,29 +12350,29 @@
     </row>
     <row r="60" spans="3:34" ht="14.4" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="152"/>
-      <c r="Z60" s="153"/>
+      <c r="W60" s="133"/>
+      <c r="X60" s="133"/>
+      <c r="Y60" s="133"/>
+      <c r="Z60" s="134"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12414,29 +12426,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12461,92 +12536,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12584,64 +12596,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="231" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="256"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="174" t="s">
+      <c r="L3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12654,10 +12666,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
     </row>
     <row r="4" spans="2:32" ht="25.8" thickBot="1">
       <c r="B4" s="2"/>
@@ -12693,71 +12705,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257" t="s">
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257" t="s">
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257" t="s">
+      <c r="M5" s="234"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257" t="s">
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257" t="s">
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="259"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="236"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" thickBot="1">
-      <c r="B6" s="134"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="260"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="237"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12782,40 +12794,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="C7" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="246" t="s">
+      <c r="D7" s="239"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="247"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="243" t="s">
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="251" t="s">
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="243" t="s">
+      <c r="M7" s="245"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="231" t="s">
+      <c r="P7" s="242"/>
+      <c r="Q7" s="243"/>
+      <c r="R7" s="247" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="185"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="248"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="250"/>
+      <c r="W7" s="250"/>
+      <c r="X7" s="251"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12830,36 +12842,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="240" t="s">
+      <c r="D8" s="257"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="231" t="s">
+      <c r="G8" s="257"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="231" t="s">
+      <c r="J8" s="254"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="247" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="243" t="s">
+      <c r="M8" s="254"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="241" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="231" t="s">
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="S8" s="238"/>
-      <c r="T8" s="239"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="255"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12920,34 +12932,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="184" t="s">
+      <c r="D10" s="252"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="227" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="231" t="s">
+      <c r="G10" s="252"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="231" t="s">
+      <c r="J10" s="254"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="247" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="231" t="s">
+      <c r="M10" s="254"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="247" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="231"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="239"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="255"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13448,22 +13460,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13480,6 +13476,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C591-6D55-4A4F-967B-3F3745755E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED392D3B-17FF-4A37-B707-42A01B91DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="314">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2191,19 +2191,6 @@
   </si>
   <si>
     <t>UT-USER02-B-023</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>表示文字が間違い</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モンジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>マチガ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3399,6 +3386,42 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3408,9 +3431,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,38 +3440,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3462,113 +3476,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3582,63 +3626,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3657,6 +3644,111 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3693,109 +3785,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3818,75 +3874,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4317,26 +4304,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4349,37 +4336,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="108">
         <v>45069</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="109"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4452,63 +4439,63 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="98" t="s">
+      <c r="Q7" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="104" t="s">
+      <c r="R7" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="99"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
     </row>
     <row r="10" spans="2:28" ht="25.2">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
     </row>
     <row r="12" spans="2:28" ht="15.6">
       <c r="B12" s="32"/>
@@ -4516,42 +4503,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="101"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="99"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4565,18 +4552,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="101"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="101"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4591,18 +4578,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="101"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="101"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4615,12 +4602,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="100"/>
+      <c r="G25" s="112"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="101"/>
+      <c r="G26" s="99"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4767,21 +4754,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4792,6 +4764,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,8 +4799,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K7" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K28" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -4836,59 +4823,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="142" t="s">
+      <c r="M3" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4898,10 +4885,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4916,57 +4903,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="147" t="s">
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5011,12 +4998,12 @@
       </c>
       <c r="N7" s="124"/>
       <c r="O7" s="124"/>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5037,32 +5024,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="123" t="s">
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="119">
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="116">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="118"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5083,32 +5070,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="123" t="s">
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="116">
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="125">
         <v>5</v>
       </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="116" t="s">
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="128"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="148"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>287</v>
@@ -5136,30 +5123,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="135" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="120" t="s">
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="116">
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="125">
         <v>50</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="128"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="148"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>305</v>
@@ -5182,30 +5169,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="123" t="s">
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="119">
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="116">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="125"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="118"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5226,32 +5213,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="123" t="s">
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="116">
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="125">
         <v>10</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="116" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="128"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="148"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>288</v>
@@ -5277,30 +5264,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="130" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="120" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="116">
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="125">
         <v>50</v>
       </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="128"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="148"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>307</v>
@@ -5323,30 +5310,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="129" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="123" t="s">
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="119">
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="116">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="125"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="118"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5365,32 +5352,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="130" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="120" t="s">
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="116">
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="125">
         <v>16</v>
       </c>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="116" t="s">
+      <c r="N15" s="126"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="128"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="148"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>289</v>
@@ -5416,30 +5403,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="130" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="120" t="s">
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="116">
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="125">
         <v>50</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="128"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="148"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>141</v>
@@ -5454,7 +5441,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5462,30 +5449,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="129" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="123" t="s">
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="119">
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="116">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="125"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="118"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>142</v>
@@ -5504,32 +5491,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="116" t="s">
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="123" t="s">
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="116">
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="125">
         <v>6</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="116" t="s">
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="125" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="128"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="148"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>291</v>
@@ -5555,30 +5542,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="116" t="s">
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="120" t="s">
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="121"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116">
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="125">
         <v>50</v>
       </c>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="128"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="148"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>143</v>
@@ -5597,30 +5584,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="116" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="120" t="s">
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="116">
+      <c r="K20" s="122"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="125">
         <v>50</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="128"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="148"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>144</v>
@@ -5639,30 +5626,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="123" t="s">
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="119">
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="116">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="125"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="118"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>145</v>
@@ -5681,32 +5668,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="123" t="s">
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="119">
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="116">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="125"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="118"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>292</v>
@@ -5732,30 +5719,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="123" t="s">
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="119">
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="116">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="125"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="118"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>310</v>
@@ -5769,9 +5756,7 @@
       <c r="Y23" s="96">
         <v>45069</v>
       </c>
-      <c r="Z23" s="19" t="s">
-        <v>313</v>
-      </c>
+      <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="1" t="s">
         <v>308</v>
@@ -5781,30 +5766,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="123" t="s">
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="119">
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="116">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="125"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="118"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>146</v>
@@ -5818,9 +5803,7 @@
       <c r="Y24" s="96">
         <v>45069</v>
       </c>
-      <c r="Z24" s="19" t="s">
-        <v>313</v>
-      </c>
+      <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="1" t="s">
         <v>308</v>
@@ -5830,30 +5813,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="123" t="s">
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="119">
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="116">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="125"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="118"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>147</v>
@@ -5867,9 +5850,7 @@
       <c r="Y25" s="96">
         <v>45069</v>
       </c>
-      <c r="Z25" s="19" t="s">
-        <v>313</v>
-      </c>
+      <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="1" t="s">
         <v>308</v>
@@ -5879,30 +5860,30 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="123" t="s">
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="119">
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="116">
         <v>50</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="125"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="118"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>148</v>
@@ -5917,7 +5898,7 @@
         <v>45069</v>
       </c>
       <c r="Z26" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA26" s="97"/>
     </row>
@@ -5925,32 +5906,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="123" t="s">
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="126">
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="119">
         <v>10</v>
       </c>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="125"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="118"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>293</v>
@@ -5976,32 +5957,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="123" t="s">
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="124">
         <v>4</v>
       </c>
       <c r="N28" s="124"/>
       <c r="O28" s="124"/>
-      <c r="P28" s="126" t="s">
+      <c r="P28" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="127"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="120"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>294</v>
@@ -6027,32 +6008,32 @@
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="123" t="s">
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
       <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="124"/>
-      <c r="P29" s="126" t="s">
+      <c r="P29" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="120"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>311</v>
@@ -6067,7 +6048,7 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA29" s="19"/>
       <c r="AB29" s="1" t="s">
@@ -6078,32 +6059,32 @@
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="123" t="s">
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
       <c r="M30" s="124">
         <v>6</v>
       </c>
       <c r="N30" s="124"/>
       <c r="O30" s="124"/>
-      <c r="P30" s="126" t="s">
+      <c r="P30" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="120"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>295</v>
@@ -6129,32 +6110,32 @@
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="123" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
       <c r="M31" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="124"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="126" t="s">
+      <c r="P31" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="127"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="120"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>149</v>
@@ -6169,7 +6150,7 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA31" s="19"/>
       <c r="AB31" s="1" t="s">
@@ -6180,30 +6161,30 @@
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="123" t="s">
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="119">
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="116">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="125"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="118"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>150</v>
@@ -6218,7 +6199,7 @@
         <v>45069</v>
       </c>
       <c r="Z32" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA32" s="97"/>
     </row>
@@ -6226,32 +6207,32 @@
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="116" t="s">
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="123" t="s">
+      <c r="H33" s="126"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="116">
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="125">
         <v>4</v>
       </c>
-      <c r="N33" s="117"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="126" t="s">
+      <c r="N33" s="126"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="127"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="120"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>296</v>
@@ -6277,30 +6258,30 @@
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120" t="s">
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="121"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="119">
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="116">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="120"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>151</v>
@@ -6315,40 +6296,40 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA34" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="AA34" s="19" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="27.6">
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="123" t="s">
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="119">
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="116">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="125"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="118"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>152</v>
@@ -6363,7 +6344,7 @@
         <v>45069</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA35" s="97"/>
     </row>
@@ -6371,32 +6352,32 @@
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="123" t="s">
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="119">
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="116">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="126" t="s">
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="127"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="120"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>297</v>
@@ -6422,30 +6403,30 @@
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120" t="s">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="119">
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="116">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="127"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="120"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>153</v>
@@ -6466,30 +6447,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="123" t="s">
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="119">
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="116">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="125"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="118"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>154</v>
@@ -6504,7 +6485,7 @@
         <v>45069</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA38" s="97"/>
     </row>
@@ -6512,32 +6493,32 @@
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="116" t="s">
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="120" t="s">
+      <c r="H39" s="126"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="116" t="s">
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="117"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="116" t="s">
+      <c r="N39" s="126"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="125" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="128"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="148"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>298</v>
@@ -6551,12 +6532,8 @@
       <c r="Y39" s="96">
         <v>45069</v>
       </c>
-      <c r="Z39" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA39" s="19" t="s">
-        <v>312</v>
-      </c>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
         <v>301</v>
       </c>
@@ -6565,32 +6542,32 @@
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="116" t="s">
+      <c r="E40" s="126"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="120" t="s">
+      <c r="H40" s="126"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="121"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="116" t="s">
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="117"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="116" t="s">
+      <c r="N40" s="126"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="128"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="148"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>299</v>
@@ -6614,22 +6591,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="128"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="148"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6640,22 +6617,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="128"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="148"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6666,22 +6643,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="128"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="148"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6692,22 +6669,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="128"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="148"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6718,22 +6695,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="128"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="126"/>
+      <c r="S45" s="148"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6744,22 +6721,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="128"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="148"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6770,22 +6747,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="128"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="148"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6796,22 +6773,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="128"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="127"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="126"/>
+      <c r="S48" s="148"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6822,22 +6799,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="128"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="148"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6848,22 +6825,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="116"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="128"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="126"/>
+      <c r="S50" s="148"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6874,22 +6851,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="127"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="119"/>
+      <c r="S51" s="120"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6900,22 +6877,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="127"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="120"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6926,22 +6903,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="127"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="120"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6951,22 +6928,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="127"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="120"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6976,155 +6953,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="127"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="119"/>
+      <c r="S55" s="120"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="127"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="120"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="126"/>
-      <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="127"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="119"/>
+      <c r="O57" s="119"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="119"/>
+      <c r="S57" s="120"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="127"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="119"/>
+      <c r="R58" s="119"/>
+      <c r="S58" s="120"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="127"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="120"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="126"/>
-      <c r="N60" s="126"/>
-      <c r="O60" s="126"/>
-      <c r="P60" s="126"/>
-      <c r="Q60" s="126"/>
-      <c r="R60" s="126"/>
-      <c r="S60" s="127"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="120"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="126"/>
-      <c r="O61" s="126"/>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="126"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="127"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
+      <c r="S61" s="120"/>
     </row>
     <row r="62" spans="3:27" ht="14.4" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="133"/>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="133"/>
-      <c r="S62" s="134"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="152"/>
+      <c r="Q62" s="152"/>
+      <c r="R62" s="152"/>
+      <c r="S62" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7141,37 +7118,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7196,243 +7379,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,71 +7444,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="176">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="177"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7548,53 +7525,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7619,28 +7596,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7655,24 +7632,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="159"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="161"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7731,24 +7708,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169" t="s">
+      <c r="H10" s="159"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="177"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="167"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7807,24 +7784,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="162" t="s">
+      <c r="E12" s="159"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169" t="s">
+      <c r="H12" s="159"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="169"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7853,10 +7830,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="172"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="157"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7879,10 +7856,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="164"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="160"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8465,22 +8442,22 @@
     </row>
     <row r="37" spans="3:27" ht="14.4" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="134"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="153"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8624,6 +8601,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8640,21 +8632,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8689,71 +8666,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="176">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="177"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8771,53 +8748,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8842,28 +8819,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8878,24 +8855,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="164"/>
       <c r="J8" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="168"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="164"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8954,16 +8931,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="164"/>
       <c r="J10" s="178" t="s">
         <v>121</v>
       </c>
@@ -9035,11 +9012,11 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" s="183"/>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="178" t="s">
         <v>122</v>
       </c>
@@ -9106,24 +9083,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="162" t="s">
+      <c r="E14" s="159"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="162" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="168"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="164"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9152,10 +9129,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="157"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9178,10 +9155,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="164"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="160"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9764,22 +9741,22 @@
     </row>
     <row r="39" spans="3:27" ht="14.4" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="134"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="153"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9905,12 +9882,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9927,18 +9910,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9984,84 +9961,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="131"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="157">
+      <c r="R3" s="176">
         <v>45069</v>
       </c>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10076,75 +10053,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186" t="s">
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186" t="s">
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="188" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="223" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="186" t="s">
+      <c r="N5" s="224"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="221" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="186" t="s">
+      <c r="Q5" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186" t="s">
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186" t="s">
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="194"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="229"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="14.4" thickBot="1">
-      <c r="C6" s="185"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="195"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="230"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10169,43 +10146,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="216"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="196" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="197"/>
-      <c r="O7" s="198"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="217"/>
       <c r="P7" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="196" t="s">
+      <c r="Q7" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="197"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="197" t="s">
+      <c r="R7" s="216"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="197"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="208"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="210"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10220,21 +10197,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="199" t="s">
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="209" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
       <c r="M8" s="202" t="s">
         <v>19</v>
       </c>
@@ -10271,26 +10248,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="199" t="s">
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
       <c r="J9" s="202" t="s">
         <v>180</v>
       </c>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
-      <c r="M9" s="203" t="s">
+      <c r="M9" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="204"/>
       <c r="P9" s="67" t="s">
         <v>175</v>
       </c>
@@ -10322,26 +10299,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="214" t="s">
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217" t="s">
+      <c r="H10" s="212"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218" t="s">
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
       <c r="P10" s="67" t="s">
         <v>175</v>
       </c>
@@ -10355,10 +10332,10 @@
       </c>
       <c r="U10" s="202"/>
       <c r="V10" s="202"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="212"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="199"/>
+      <c r="Y10" s="199"/>
+      <c r="Z10" s="211"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>250</v>
@@ -10416,26 +10393,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="199" t="s">
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="209" t="s">
+      <c r="H12" s="195"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="213" t="s">
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="213"/>
-      <c r="O12" s="213"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
       <c r="P12" s="67" t="s">
         <v>175</v>
       </c>
@@ -10449,10 +10426,10 @@
       </c>
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="212"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="211"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>251</v>
@@ -10510,26 +10487,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="199" t="s">
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="209" t="s">
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="213" t="s">
+      <c r="K14" s="197"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="213"/>
-      <c r="O14" s="213"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
       <c r="P14" s="67" t="s">
         <v>175</v>
       </c>
@@ -10604,26 +10581,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="199" t="s">
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="200"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="209" t="s">
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="213" t="s">
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="213"/>
-      <c r="O16" s="213"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
       <c r="P16" s="67" t="s">
         <v>175</v>
       </c>
@@ -10698,26 +10675,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="199" t="s">
+      <c r="D18" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="199" t="s">
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="209" t="s">
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="213" t="s">
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
       <c r="P18" s="67" t="s">
         <v>175</v>
       </c>
@@ -10792,26 +10769,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="204"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="199" t="s">
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="209" t="s">
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="213" t="s">
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
       <c r="P20" s="67" t="s">
         <v>175</v>
       </c>
@@ -10886,26 +10863,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="199" t="s">
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="209" t="s">
+      <c r="H22" s="195"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="213" t="s">
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
       <c r="P22" s="71" t="s">
         <v>175</v>
       </c>
@@ -10980,26 +10957,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="199" t="s">
+      <c r="D24" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="199" t="s">
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="200"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="219" t="s">
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="213" t="s">
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
       <c r="P24" s="67" t="s">
         <v>175</v>
       </c>
@@ -11074,26 +11051,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="199" t="s">
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="202" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="202"/>
       <c r="L26" s="202"/>
-      <c r="M26" s="220" t="s">
+      <c r="M26" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
       <c r="P26" s="67" t="s">
         <v>175</v>
       </c>
@@ -11168,17 +11145,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="199" t="s">
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="204"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="213" t="s">
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205" t="s">
         <v>206</v>
       </c>
       <c r="K28" s="202"/>
@@ -11196,7 +11173,7 @@
       </c>
       <c r="R28" s="202"/>
       <c r="S28" s="202"/>
-      <c r="T28" s="213" t="s">
+      <c r="T28" s="205" t="s">
         <v>208</v>
       </c>
       <c r="U28" s="202"/>
@@ -11262,16 +11239,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="224" t="s">
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="225"/>
-      <c r="I30" s="226"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="189"/>
       <c r="J30" s="202" t="s">
         <v>209</v>
       </c>
@@ -11356,39 +11333,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="222"/>
-      <c r="G32" s="214" t="s">
+      <c r="E32" s="191"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="221"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="217" t="s">
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="210" t="s">
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="211"/>
-      <c r="O32" s="223"/>
+      <c r="N32" s="199"/>
+      <c r="O32" s="200"/>
       <c r="P32" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="214" t="s">
+      <c r="Q32" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="221"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="210" t="s">
+      <c r="R32" s="191"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="198" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="211"/>
-      <c r="V32" s="223"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="200"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11407,39 +11384,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="199" t="s">
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="200"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="209" t="s">
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="210" t="s">
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="211"/>
-      <c r="O33" s="223"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="200"/>
       <c r="P33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="214" t="s">
+      <c r="Q33" s="190" t="s">
         <v>218</v>
       </c>
-      <c r="R33" s="221"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="210" t="s">
+      <c r="R33" s="191"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="198" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="211"/>
-      <c r="V33" s="223"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="200"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11458,43 +11435,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="199" t="s">
+      <c r="D34" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="199" t="s">
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="209" t="s">
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="214" t="s">
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="N34" s="221"/>
-      <c r="O34" s="222"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="192"/>
       <c r="P34" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="214" t="s">
+      <c r="Q34" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="R34" s="221"/>
-      <c r="S34" s="222"/>
-      <c r="T34" s="210" t="s">
+      <c r="R34" s="191"/>
+      <c r="S34" s="192"/>
+      <c r="T34" s="198" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="211"/>
-      <c r="V34" s="223"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="228"/>
-      <c r="Y34" s="228"/>
-      <c r="Z34" s="229"/>
+      <c r="U34" s="199"/>
+      <c r="V34" s="200"/>
+      <c r="W34" s="184"/>
+      <c r="X34" s="185"/>
+      <c r="Y34" s="185"/>
+      <c r="Z34" s="186"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11509,43 +11486,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="224" t="s">
+      <c r="D35" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="225"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="224" t="s">
+      <c r="E35" s="188"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="225"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="214" t="s">
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="221"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="214" t="s">
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="221"/>
-      <c r="O35" s="222"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="192"/>
       <c r="P35" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="214" t="s">
+      <c r="Q35" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="221"/>
-      <c r="S35" s="222"/>
-      <c r="T35" s="230" t="s">
+      <c r="R35" s="191"/>
+      <c r="S35" s="192"/>
+      <c r="T35" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="221"/>
-      <c r="V35" s="222"/>
-      <c r="W35" s="227"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="229"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="192"/>
+      <c r="W35" s="184"/>
+      <c r="X35" s="185"/>
+      <c r="Y35" s="185"/>
+      <c r="Z35" s="186"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12350,29 +12327,29 @@
     </row>
     <row r="60" spans="3:34" ht="14.4" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="133"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="152"/>
+      <c r="P60" s="152"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="133"/>
-      <c r="X60" s="133"/>
-      <c r="Y60" s="133"/>
-      <c r="Z60" s="134"/>
+      <c r="W60" s="152"/>
+      <c r="X60" s="152"/>
+      <c r="Y60" s="152"/>
+      <c r="Z60" s="153"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12426,6 +12403,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12450,115 +12536,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12596,64 +12573,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="254" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="256"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12666,10 +12643,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
     </row>
     <row r="4" spans="2:32" ht="25.8" thickBot="1">
       <c r="B4" s="2"/>
@@ -12705,71 +12682,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234" t="s">
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234" t="s">
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234" t="s">
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234" t="s">
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234" t="s">
+      <c r="P5" s="257"/>
+      <c r="Q5" s="257"/>
+      <c r="R5" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234" t="s">
+      <c r="S5" s="257"/>
+      <c r="T5" s="257"/>
+      <c r="U5" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="234"/>
-      <c r="W5" s="234"/>
-      <c r="X5" s="236"/>
+      <c r="V5" s="257"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="259"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" thickBot="1">
-      <c r="B6" s="144"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="235"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="235"/>
-      <c r="X6" s="237"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="258"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="258"/>
+      <c r="W6" s="258"/>
+      <c r="X6" s="260"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12794,40 +12771,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="238" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="246" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="241" t="s">
+      <c r="G7" s="247"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="243" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="244" t="s">
+      <c r="J7" s="249"/>
+      <c r="K7" s="250"/>
+      <c r="L7" s="251" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="245"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="241" t="s">
+      <c r="M7" s="252"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="243" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="243"/>
-      <c r="R7" s="247" t="s">
+      <c r="P7" s="249"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="228"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="249"/>
-      <c r="V7" s="250"/>
-      <c r="W7" s="250"/>
-      <c r="X7" s="251"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="232"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="234"/>
+      <c r="X7" s="235"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12842,36 +12819,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="256" t="s">
+      <c r="D8" s="241"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="257"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="247" t="s">
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="247" t="s">
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="241" t="s">
+      <c r="M8" s="238"/>
+      <c r="N8" s="239"/>
+      <c r="O8" s="243" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="247" t="s">
+      <c r="P8" s="244"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="231" t="s">
         <v>235</v>
       </c>
-      <c r="S8" s="254"/>
-      <c r="T8" s="255"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="239"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12932,34 +12909,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="227" t="s">
+      <c r="D10" s="236"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="252"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="247" t="s">
+      <c r="G10" s="236"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="254"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="247" t="s">
+      <c r="J10" s="238"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="254"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="247" t="s">
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="231" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="255"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="239"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13460,6 +13437,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13476,22 +13469,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED392D3B-17FF-4A37-B707-42A01B91DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6A779-7BCC-40B7-ADAE-CB31890ABCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="314">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -3386,66 +3386,87 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3455,25 +3476,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3527,35 +3557,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3566,15 +3611,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3584,48 +3620,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3644,6 +3644,135 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3653,137 +3782,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3821,59 +3869,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4304,26 +4304,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4336,37 +4336,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="105"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="113">
         <v>45069</v>
       </c>
-      <c r="M3" s="109"/>
+      <c r="M3" s="114"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4439,63 +4439,63 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="115" t="s">
+      <c r="R7" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10" spans="2:28" ht="25.2">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="12" spans="2:28" ht="15.6">
       <c r="B12" s="32"/>
@@ -4503,42 +4503,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="99"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="101"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4552,18 +4552,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="101"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="101"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4578,18 +4578,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="101"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="101"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4602,12 +4602,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="112"/>
+      <c r="G25" s="100"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="101"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4754,6 +4754,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4764,21 +4779,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4799,8 +4799,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K28" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K7" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -4823,59 +4823,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4885,10 +4885,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4903,57 +4903,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="137" t="s">
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="144"/>
+      <c r="D6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="N7" s="124"/>
       <c r="O7" s="124"/>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5024,32 +5024,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116">
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="118"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="125"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5070,32 +5070,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="117" t="s">
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="125">
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="116">
         <v>5</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="125" t="s">
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="148"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="128"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>287</v>
@@ -5123,30 +5123,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="121" t="s">
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="125">
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="116">
         <v>50</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="148"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="128"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>305</v>
@@ -5169,30 +5169,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116">
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="118"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="125"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5213,32 +5213,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="125" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="117" t="s">
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="125">
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="116">
         <v>10</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="125" t="s">
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="148"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="128"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>288</v>
@@ -5264,30 +5264,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="149" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="121" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="125">
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="116">
         <v>50</v>
       </c>
-      <c r="N13" s="126"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="148"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="128"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>307</v>
@@ -5310,30 +5310,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="154" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="117" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116">
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="125"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5352,32 +5352,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="149" t="s">
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="121" t="s">
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="125">
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="116">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="125" t="s">
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="128"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>289</v>
@@ -5403,30 +5403,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="149" t="s">
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="121" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="125">
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="116">
         <v>50</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="148"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="128"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>141</v>
@@ -5449,30 +5449,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="154" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="117" t="s">
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116">
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="118"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="125"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>142</v>
@@ -5491,32 +5491,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="125" t="s">
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="117" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="125">
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="116">
         <v>6</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="125" t="s">
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="148"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="128"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>291</v>
@@ -5542,30 +5542,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="125" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="121" t="s">
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="125">
+      <c r="K19" s="121"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="116">
         <v>50</v>
       </c>
-      <c r="N19" s="126"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="148"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="128"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>143</v>
@@ -5584,30 +5584,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="125" t="s">
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="121" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="125">
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="116">
         <v>50</v>
       </c>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="148"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="128"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>144</v>
@@ -5626,30 +5626,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="116">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="118"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="125"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>145</v>
@@ -5668,32 +5668,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="116">
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="125"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>292</v>
@@ -5719,30 +5719,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="116">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="118"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="125"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>310</v>
@@ -5766,30 +5766,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="116">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="118"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="125"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>146</v>
@@ -5813,30 +5813,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116">
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="125"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>147</v>
@@ -5860,30 +5860,30 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116" t="s">
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117" t="s">
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="116">
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="119">
         <v>50</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="125"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>148</v>
@@ -5897,41 +5897,39 @@
       <c r="Y26" s="96">
         <v>45069</v>
       </c>
-      <c r="Z26" s="19" t="s">
-        <v>312</v>
-      </c>
+      <c r="Z26" s="19"/>
       <c r="AA26" s="97"/>
     </row>
     <row r="27" spans="3:28" ht="27.6">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="119">
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="126">
         <v>10</v>
       </c>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="116" t="s">
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="118"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="125"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>293</v>
@@ -5957,32 +5955,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
       <c r="M28" s="124">
         <v>4</v>
       </c>
       <c r="N28" s="124"/>
       <c r="O28" s="124"/>
-      <c r="P28" s="119" t="s">
+      <c r="P28" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="120"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="127"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>294</v>
@@ -6008,32 +6006,32 @@
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="124"/>
-      <c r="P29" s="119" t="s">
+      <c r="P29" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="120"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>311</v>
@@ -6059,32 +6057,32 @@
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
       <c r="M30" s="124">
         <v>6</v>
       </c>
       <c r="N30" s="124"/>
       <c r="O30" s="124"/>
-      <c r="P30" s="119" t="s">
+      <c r="P30" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="120"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>295</v>
@@ -6110,32 +6108,32 @@
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="124"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="119" t="s">
+      <c r="P31" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="127"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>149</v>
@@ -6161,30 +6159,30 @@
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="116">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="125"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>150</v>
@@ -6198,41 +6196,39 @@
       <c r="Y32" s="96">
         <v>45069</v>
       </c>
-      <c r="Z32" s="19" t="s">
-        <v>312</v>
-      </c>
+      <c r="Z32" s="19"/>
       <c r="AA32" s="97"/>
     </row>
     <row r="33" spans="3:28" ht="27.6">
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="125" t="s">
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="117" t="s">
+      <c r="H33" s="117"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="125">
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="116">
         <v>4</v>
       </c>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="119" t="s">
+      <c r="N33" s="117"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="120"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="127"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>296</v>
@@ -6258,30 +6254,30 @@
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="121" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="116">
+      <c r="K34" s="121"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="120"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="127"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>151</v>
@@ -6306,30 +6302,30 @@
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="116">
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="118"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="125"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>152</v>
@@ -6343,41 +6339,39 @@
       <c r="Y35" s="96">
         <v>45069</v>
       </c>
-      <c r="Z35" s="19" t="s">
-        <v>312</v>
-      </c>
+      <c r="Z35" s="19"/>
       <c r="AA35" s="97"/>
     </row>
     <row r="36" spans="3:28" ht="27.6">
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="116">
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="119" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="120"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>297</v>
@@ -6403,30 +6397,30 @@
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="121" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="116">
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="120"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="127"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>153</v>
@@ -6447,30 +6441,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="116">
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="118"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="125"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>154</v>
@@ -6484,41 +6478,39 @@
       <c r="Y38" s="96">
         <v>45069</v>
       </c>
-      <c r="Z38" s="19" t="s">
-        <v>312</v>
-      </c>
+      <c r="Z38" s="19"/>
       <c r="AA38" s="97"/>
     </row>
     <row r="39" spans="3:28" ht="27.6">
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="125" t="s">
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="121" t="s">
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="125" t="s">
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="125" t="s">
+      <c r="N39" s="117"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="148"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="128"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>298</v>
@@ -6542,32 +6534,32 @@
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="125" t="s">
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="121" t="s">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="125" t="s">
+      <c r="K40" s="121"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="126"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="125" t="s">
+      <c r="N40" s="117"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="148"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="128"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>299</v>
@@ -6591,22 +6583,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="148"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="128"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6617,22 +6609,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="148"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="128"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6643,22 +6635,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="148"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="128"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6669,22 +6661,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="148"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="128"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6695,22 +6687,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="148"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="128"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6721,22 +6713,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="148"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="128"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6747,22 +6739,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="148"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="128"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6773,22 +6765,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="148"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="128"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6799,22 +6791,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="148"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="128"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6825,22 +6817,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="148"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="128"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6851,22 +6843,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="120"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="126"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="127"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6877,22 +6869,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="120"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="127"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6903,22 +6895,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="120"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="127"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6928,22 +6920,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="120"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="127"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6953,155 +6945,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="120"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="127"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="120"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="127"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="119"/>
-      <c r="S57" s="120"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="127"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="120"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="127"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="120"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="126"/>
+      <c r="S59" s="127"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="120"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="126"/>
+      <c r="Q60" s="126"/>
+      <c r="R60" s="126"/>
+      <c r="S60" s="127"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="119"/>
-      <c r="S61" s="120"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="126"/>
+      <c r="P61" s="126"/>
+      <c r="Q61" s="126"/>
+      <c r="R61" s="126"/>
+      <c r="S61" s="127"/>
     </row>
     <row r="62" spans="3:27" ht="14.4" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="153"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="133"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="134"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7118,6 +7110,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7142,274 +7402,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7444,71 +7436,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7525,53 +7517,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7596,28 +7588,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7632,24 +7624,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="169"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="161"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7708,24 +7700,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165" t="s">
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="167"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7784,24 +7776,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="158" t="s">
+      <c r="E12" s="163"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7830,10 +7822,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="172"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7856,10 +7848,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="160"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="164"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8442,22 +8434,22 @@
     </row>
     <row r="37" spans="3:27" ht="14.4" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="153"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="134"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8601,21 +8593,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8632,6 +8609,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8666,71 +8658,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8748,53 +8740,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8819,28 +8811,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8855,24 +8847,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="164"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8931,16 +8923,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="178" t="s">
         <v>121</v>
       </c>
@@ -9012,11 +9004,11 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" s="183"/>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="178" t="s">
         <v>122</v>
       </c>
@@ -9083,24 +9075,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="158" t="s">
+      <c r="H14" s="163"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="164"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9129,10 +9121,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="157"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="172"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9155,10 +9147,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="160"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9741,22 +9733,22 @@
     </row>
     <row r="39" spans="3:27" ht="14.4" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="153"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9882,18 +9874,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9910,12 +9896,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9961,84 +9953,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="141"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="156"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="176">
+      <c r="R3" s="157">
         <v>45069</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10053,75 +10045,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="223" t="s">
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="221" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="221" t="s">
+      <c r="Q5" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221" t="s">
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="221"/>
-      <c r="V5" s="221"/>
-      <c r="W5" s="221" t="s">
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="229"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="194"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="14.4" thickBot="1">
-      <c r="C6" s="220"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="230"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+      <c r="Z6" s="195"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10146,43 +10138,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="215" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="215" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="198"/>
       <c r="P7" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="215" t="s">
+      <c r="Q7" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="216" t="s">
+      <c r="R7" s="197"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="216"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="210"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="207"/>
+      <c r="Z7" s="208"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10197,21 +10189,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="194" t="s">
+      <c r="D8" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="194" t="s">
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197" t="s">
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
       <c r="M8" s="202" t="s">
         <v>19</v>
       </c>
@@ -10248,26 +10240,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="194" t="s">
+      <c r="D9" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="194" t="s">
+      <c r="E9" s="200"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
       <c r="J9" s="202" t="s">
         <v>180</v>
       </c>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
-      <c r="M9" s="218" t="s">
+      <c r="M9" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="203"/>
-      <c r="O9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="205"/>
       <c r="P9" s="67" t="s">
         <v>175</v>
       </c>
@@ -10299,26 +10291,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="190" t="s">
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="201" t="s">
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="214" t="s">
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
       <c r="P10" s="67" t="s">
         <v>175</v>
       </c>
@@ -10332,10 +10324,10 @@
       </c>
       <c r="U10" s="202"/>
       <c r="V10" s="202"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="211"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="212"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>250</v>
@@ -10393,26 +10385,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="194" t="s">
+      <c r="E12" s="200"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="s">
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="205" t="s">
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="67" t="s">
         <v>175</v>
       </c>
@@ -10426,10 +10418,10 @@
       </c>
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="211"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="212"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>251</v>
@@ -10487,26 +10479,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="194" t="s">
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197" t="s">
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="205" t="s">
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
       <c r="P14" s="67" t="s">
         <v>175</v>
       </c>
@@ -10581,26 +10573,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="205" t="s">
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
       <c r="P16" s="67" t="s">
         <v>175</v>
       </c>
@@ -10675,26 +10667,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="194" t="s">
+      <c r="D18" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="194" t="s">
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197" t="s">
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="205" t="s">
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="213" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
       <c r="P18" s="67" t="s">
         <v>175</v>
       </c>
@@ -10769,26 +10761,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="194" t="s">
+      <c r="D20" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="194" t="s">
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197" t="s">
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="205" t="s">
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="213" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
       <c r="P20" s="67" t="s">
         <v>175</v>
       </c>
@@ -10863,26 +10855,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="194" t="s">
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197" t="s">
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="205" t="s">
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
       <c r="P22" s="71" t="s">
         <v>175</v>
       </c>
@@ -10957,26 +10949,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="194" t="s">
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="207" t="s">
+      <c r="H24" s="200"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="219" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="205" t="s">
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
       <c r="P24" s="67" t="s">
         <v>175</v>
       </c>
@@ -11051,26 +11043,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="194" t="s">
+      <c r="E26" s="200"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="201"/>
       <c r="J26" s="202" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="202"/>
       <c r="L26" s="202"/>
-      <c r="M26" s="206" t="s">
+      <c r="M26" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
       <c r="P26" s="67" t="s">
         <v>175</v>
       </c>
@@ -11145,17 +11137,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="194" t="s">
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205" t="s">
+      <c r="H28" s="204"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="213" t="s">
         <v>206</v>
       </c>
       <c r="K28" s="202"/>
@@ -11173,7 +11165,7 @@
       </c>
       <c r="R28" s="202"/>
       <c r="S28" s="202"/>
-      <c r="T28" s="205" t="s">
+      <c r="T28" s="213" t="s">
         <v>208</v>
       </c>
       <c r="U28" s="202"/>
@@ -11239,16 +11231,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="187" t="s">
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="224" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="226"/>
       <c r="J30" s="202" t="s">
         <v>209</v>
       </c>
@@ -11333,39 +11325,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="214" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="190" t="s">
+      <c r="E32" s="221"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="201" t="s">
+      <c r="H32" s="221"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="198" t="s">
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="199"/>
-      <c r="O32" s="200"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="223"/>
       <c r="P32" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="190" t="s">
+      <c r="Q32" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="191"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="198" t="s">
+      <c r="R32" s="221"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="210" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="223"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11384,39 +11376,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="194" t="s">
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197" t="s">
+      <c r="H33" s="200"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198" t="s">
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="210" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="199"/>
-      <c r="O33" s="200"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="223"/>
       <c r="P33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="190" t="s">
+      <c r="Q33" s="214" t="s">
         <v>218</v>
       </c>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="198" t="s">
+      <c r="R33" s="221"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="199"/>
-      <c r="V33" s="200"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="223"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11435,43 +11427,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="194" t="s">
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="190" t="s">
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N34" s="191"/>
-      <c r="O34" s="192"/>
+      <c r="N34" s="221"/>
+      <c r="O34" s="222"/>
       <c r="P34" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="190" t="s">
+      <c r="Q34" s="214" t="s">
         <v>221</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="198" t="s">
+      <c r="R34" s="221"/>
+      <c r="S34" s="222"/>
+      <c r="T34" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="185"/>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="186"/>
+      <c r="U34" s="211"/>
+      <c r="V34" s="223"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="229"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11486,43 +11478,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="187" t="s">
+      <c r="E35" s="225"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190" t="s">
+      <c r="H35" s="225"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="190" t="s">
+      <c r="K35" s="221"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="192"/>
+      <c r="N35" s="221"/>
+      <c r="O35" s="222"/>
       <c r="P35" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="190" t="s">
+      <c r="Q35" s="214" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="191"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="193" t="s">
+      <c r="R35" s="221"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="230" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="185"/>
-      <c r="Y35" s="185"/>
-      <c r="Z35" s="186"/>
+      <c r="U35" s="221"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="227"/>
+      <c r="X35" s="228"/>
+      <c r="Y35" s="228"/>
+      <c r="Z35" s="229"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12327,29 +12319,29 @@
     </row>
     <row r="60" spans="3:34" ht="14.4" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="152"/>
-      <c r="Z60" s="153"/>
+      <c r="W60" s="133"/>
+      <c r="X60" s="133"/>
+      <c r="Y60" s="133"/>
+      <c r="Z60" s="134"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12403,29 +12395,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12450,92 +12505,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12573,64 +12565,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="231" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="256"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="174" t="s">
+      <c r="L3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12643,10 +12635,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
     </row>
     <row r="4" spans="2:32" ht="25.8" thickBot="1">
       <c r="B4" s="2"/>
@@ -12682,71 +12674,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257" t="s">
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257" t="s">
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257" t="s">
+      <c r="M5" s="234"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257" t="s">
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257" t="s">
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="259"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="236"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" thickBot="1">
-      <c r="B6" s="134"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="260"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="237"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12771,40 +12763,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="C7" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="246" t="s">
+      <c r="D7" s="239"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="247"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="243" t="s">
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="251" t="s">
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="243" t="s">
+      <c r="M7" s="245"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="231" t="s">
+      <c r="P7" s="242"/>
+      <c r="Q7" s="243"/>
+      <c r="R7" s="247" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="185"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="248"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="250"/>
+      <c r="W7" s="250"/>
+      <c r="X7" s="251"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12819,36 +12811,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="240" t="s">
+      <c r="D8" s="257"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="231" t="s">
+      <c r="G8" s="257"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="231" t="s">
+      <c r="J8" s="254"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="247" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="243" t="s">
+      <c r="M8" s="254"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="241" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="231" t="s">
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="S8" s="238"/>
-      <c r="T8" s="239"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="255"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12909,34 +12901,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="184" t="s">
+      <c r="D10" s="252"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="227" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="231" t="s">
+      <c r="G10" s="252"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="231" t="s">
+      <c r="J10" s="254"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="247" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="231" t="s">
+      <c r="M10" s="254"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="247" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="231"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="239"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="255"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13437,22 +13429,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13469,6 +13445,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6A779-7BCC-40B7-ADAE-CB31890ABCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE057D-B526-4086-A746-F072E7FA17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3386,6 +3386,42 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3395,9 +3431,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3407,38 +3440,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3449,113 +3476,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3569,63 +3626,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3644,6 +3644,111 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3680,109 +3785,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3805,75 +3874,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4304,26 +4304,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4336,37 +4336,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="108">
         <v>45069</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="109"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4439,63 +4439,63 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="98" t="s">
+      <c r="Q7" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="104" t="s">
+      <c r="R7" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="99"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
     </row>
     <row r="10" spans="2:28" ht="25.2">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
     </row>
     <row r="12" spans="2:28" ht="15.6">
       <c r="B12" s="32"/>
@@ -4503,42 +4503,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="101"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="99"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4552,18 +4552,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="101"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="101"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4578,18 +4578,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="101"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="101"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4602,12 +4602,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="100"/>
+      <c r="G25" s="112"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="101"/>
+      <c r="G26" s="99"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4754,21 +4754,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4779,6 +4764,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4799,8 +4799,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K7" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K19" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -4823,59 +4823,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="142" t="s">
+      <c r="M3" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4885,10 +4885,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4903,57 +4903,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="147" t="s">
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="N7" s="124"/>
       <c r="O7" s="124"/>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5024,32 +5024,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="123" t="s">
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="119">
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="116">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="118"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5070,32 +5070,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="123" t="s">
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="116">
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="125">
         <v>5</v>
       </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="116" t="s">
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="128"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="148"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>287</v>
@@ -5123,30 +5123,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="135" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="120" t="s">
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="116">
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="125">
         <v>50</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="128"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="148"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>305</v>
@@ -5169,30 +5169,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="123" t="s">
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="119">
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="116">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="125"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="118"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5213,32 +5213,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="123" t="s">
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="116">
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="125">
         <v>10</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="116" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="128"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="148"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>288</v>
@@ -5264,30 +5264,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="130" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="120" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="116">
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="125">
         <v>50</v>
       </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="128"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="148"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>307</v>
@@ -5310,30 +5310,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="129" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="123" t="s">
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="119">
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="116">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="125"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="118"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5352,32 +5352,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="130" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="120" t="s">
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="116">
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="125">
         <v>16</v>
       </c>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="116" t="s">
+      <c r="N15" s="126"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="128"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="148"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>289</v>
@@ -5403,30 +5403,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="130" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="120" t="s">
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="116">
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="125">
         <v>50</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="128"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="148"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>141</v>
@@ -5449,30 +5449,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="129" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="123" t="s">
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="119">
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="116">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="125"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="118"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>142</v>
@@ -5491,32 +5491,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="116" t="s">
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="123" t="s">
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="116">
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="125">
         <v>6</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="116" t="s">
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="125" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="128"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="148"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>291</v>
@@ -5542,30 +5542,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="116" t="s">
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="120" t="s">
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="121"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116">
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="125">
         <v>50</v>
       </c>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="128"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="148"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>143</v>
@@ -5584,30 +5584,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="116" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="120" t="s">
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="116">
+      <c r="K20" s="122"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="125">
         <v>50</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="128"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="148"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>144</v>
@@ -5626,30 +5626,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="123" t="s">
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="119">
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="116">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="125"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="118"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>145</v>
@@ -5668,32 +5668,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="123" t="s">
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="119">
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="116">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="125"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="118"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>292</v>
@@ -5719,30 +5719,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="123" t="s">
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="119">
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="116">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="125"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="118"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>310</v>
@@ -5766,30 +5766,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="123" t="s">
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="119">
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="116">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="125"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="118"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>146</v>
@@ -5813,30 +5813,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="123" t="s">
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="119">
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="116">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="125"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="118"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>147</v>
@@ -5860,30 +5860,30 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="123" t="s">
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="119">
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="116">
         <v>50</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="125"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="118"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>148</v>
@@ -5904,32 +5904,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="123" t="s">
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="126">
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="119">
         <v>10</v>
       </c>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="125"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="118"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>293</v>
@@ -5955,32 +5955,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="123" t="s">
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="124">
         <v>4</v>
       </c>
       <c r="N28" s="124"/>
       <c r="O28" s="124"/>
-      <c r="P28" s="126" t="s">
+      <c r="P28" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="127"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="120"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>294</v>
@@ -6006,32 +6006,32 @@
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="123" t="s">
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
       <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="124"/>
-      <c r="P29" s="126" t="s">
+      <c r="P29" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="120"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>311</v>
@@ -6057,32 +6057,32 @@
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="123" t="s">
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
       <c r="M30" s="124">
         <v>6</v>
       </c>
       <c r="N30" s="124"/>
       <c r="O30" s="124"/>
-      <c r="P30" s="126" t="s">
+      <c r="P30" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="120"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>295</v>
@@ -6108,32 +6108,32 @@
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="123" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
       <c r="M31" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="124"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="126" t="s">
+      <c r="P31" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="127"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="120"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>149</v>
@@ -6159,30 +6159,30 @@
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="123" t="s">
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="119">
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="116">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="125"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="118"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>150</v>
@@ -6203,32 +6203,32 @@
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="116" t="s">
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="123" t="s">
+      <c r="H33" s="126"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="116">
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="125">
         <v>4</v>
       </c>
-      <c r="N33" s="117"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="126" t="s">
+      <c r="N33" s="126"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="127"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="120"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>296</v>
@@ -6254,30 +6254,30 @@
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120" t="s">
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="121"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="119">
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="116">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="120"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>151</v>
@@ -6302,30 +6302,30 @@
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="123" t="s">
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="119">
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="116">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="125"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="118"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>152</v>
@@ -6346,32 +6346,32 @@
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="123" t="s">
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="119">
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="116">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="126" t="s">
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="127"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="120"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>297</v>
@@ -6397,30 +6397,30 @@
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120" t="s">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="119">
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="116">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="127"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="120"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>153</v>
@@ -6441,30 +6441,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="123" t="s">
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="119">
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="116">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="125"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="118"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>154</v>
@@ -6485,32 +6485,32 @@
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="116" t="s">
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="120" t="s">
+      <c r="H39" s="126"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="116" t="s">
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="117"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="116" t="s">
+      <c r="N39" s="126"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="125" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="128"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="148"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>298</v>
@@ -6534,32 +6534,32 @@
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="116" t="s">
+      <c r="E40" s="126"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="120" t="s">
+      <c r="H40" s="126"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="121"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="116" t="s">
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="117"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="116" t="s">
+      <c r="N40" s="126"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="128"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="148"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>299</v>
@@ -6583,22 +6583,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="128"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="148"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6609,22 +6609,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="128"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="148"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6635,22 +6635,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="128"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="148"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6661,22 +6661,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="128"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="148"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="128"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="126"/>
+      <c r="S45" s="148"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6713,22 +6713,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="128"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="148"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6739,22 +6739,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="128"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="126"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="148"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6765,22 +6765,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="128"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="127"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="126"/>
+      <c r="S48" s="148"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6791,22 +6791,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="128"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="148"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6817,22 +6817,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="116"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="128"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="126"/>
+      <c r="S50" s="148"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6843,22 +6843,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="127"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="119"/>
+      <c r="S51" s="120"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6869,22 +6869,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="127"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="120"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6895,22 +6895,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="127"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="120"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6920,22 +6920,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="127"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="120"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6945,155 +6945,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="127"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="119"/>
+      <c r="S55" s="120"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="127"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="120"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="126"/>
-      <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="127"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="119"/>
+      <c r="O57" s="119"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="119"/>
+      <c r="S57" s="120"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="127"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="119"/>
+      <c r="R58" s="119"/>
+      <c r="S58" s="120"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="127"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="120"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="126"/>
-      <c r="N60" s="126"/>
-      <c r="O60" s="126"/>
-      <c r="P60" s="126"/>
-      <c r="Q60" s="126"/>
-      <c r="R60" s="126"/>
-      <c r="S60" s="127"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="120"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="126"/>
-      <c r="O61" s="126"/>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="126"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="127"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
+      <c r="S61" s="120"/>
     </row>
     <row r="62" spans="3:27" ht="14.4" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="133"/>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="133"/>
-      <c r="S62" s="134"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="152"/>
+      <c r="Q62" s="152"/>
+      <c r="R62" s="152"/>
+      <c r="S62" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7110,37 +7110,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7165,243 +7371,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7436,71 +7436,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="176">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="177"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7517,53 +7517,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7588,28 +7588,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7624,24 +7624,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="159"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="161"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7700,24 +7700,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169" t="s">
+      <c r="H10" s="159"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="177"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="167"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7776,24 +7776,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="162" t="s">
+      <c r="E12" s="159"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169" t="s">
+      <c r="H12" s="159"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="169"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7822,10 +7822,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="172"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="157"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7848,10 +7848,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="164"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="160"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8434,22 +8434,22 @@
     </row>
     <row r="37" spans="3:27" ht="14.4" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="134"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="153"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8593,6 +8593,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8609,21 +8624,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8658,71 +8658,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="176">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="177"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8740,53 +8740,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="143"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="144"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8811,28 +8811,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8847,24 +8847,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="164"/>
       <c r="J8" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="168"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="164"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8923,16 +8923,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="164"/>
       <c r="J10" s="178" t="s">
         <v>121</v>
       </c>
@@ -9004,11 +9004,11 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" s="183"/>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="178" t="s">
         <v>122</v>
       </c>
@@ -9075,24 +9075,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="162" t="s">
+      <c r="E14" s="159"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="162" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="168"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="164"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9121,10 +9121,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="157"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9147,10 +9147,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="164"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="160"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9733,22 +9733,22 @@
     </row>
     <row r="39" spans="3:27" ht="14.4" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="134"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="153"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9874,12 +9874,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9896,18 +9902,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9953,84 +9953,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="131"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="157">
+      <c r="R3" s="176">
         <v>45069</v>
       </c>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="177"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10045,75 +10045,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186" t="s">
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186" t="s">
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="188" t="s">
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="223" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="186" t="s">
+      <c r="N5" s="224"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="221" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="186" t="s">
+      <c r="Q5" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186" t="s">
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186" t="s">
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="194"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="229"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="14.4" thickBot="1">
-      <c r="C6" s="185"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="195"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="230"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10138,43 +10138,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="216"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="196" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="197"/>
-      <c r="O7" s="198"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="217"/>
       <c r="P7" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="196" t="s">
+      <c r="Q7" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="197"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="197" t="s">
+      <c r="R7" s="216"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="197"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="208"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="210"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10189,21 +10189,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="199" t="s">
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="209" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
       <c r="M8" s="202" t="s">
         <v>19</v>
       </c>
@@ -10240,26 +10240,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="199" t="s">
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="196"/>
       <c r="J9" s="202" t="s">
         <v>180</v>
       </c>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
-      <c r="M9" s="203" t="s">
+      <c r="M9" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="204"/>
       <c r="P9" s="67" t="s">
         <v>175</v>
       </c>
@@ -10291,26 +10291,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="214" t="s">
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217" t="s">
+      <c r="H10" s="212"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218" t="s">
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
       <c r="P10" s="67" t="s">
         <v>175</v>
       </c>
@@ -10324,10 +10324,10 @@
       </c>
       <c r="U10" s="202"/>
       <c r="V10" s="202"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="212"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="199"/>
+      <c r="Y10" s="199"/>
+      <c r="Z10" s="211"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>250</v>
@@ -10385,26 +10385,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="199" t="s">
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="209" t="s">
+      <c r="H12" s="195"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="213" t="s">
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="213"/>
-      <c r="O12" s="213"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
       <c r="P12" s="67" t="s">
         <v>175</v>
       </c>
@@ -10418,10 +10418,10 @@
       </c>
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="212"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="211"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>251</v>
@@ -10479,26 +10479,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="199" t="s">
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="209" t="s">
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="213" t="s">
+      <c r="K14" s="197"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="213"/>
-      <c r="O14" s="213"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
       <c r="P14" s="67" t="s">
         <v>175</v>
       </c>
@@ -10573,26 +10573,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="199" t="s">
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="200"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="209" t="s">
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="213" t="s">
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="213"/>
-      <c r="O16" s="213"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
       <c r="P16" s="67" t="s">
         <v>175</v>
       </c>
@@ -10667,26 +10667,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="199" t="s">
+      <c r="D18" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="199" t="s">
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="209" t="s">
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="213" t="s">
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
       <c r="P18" s="67" t="s">
         <v>175</v>
       </c>
@@ -10761,26 +10761,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="204"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="199" t="s">
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="209" t="s">
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="213" t="s">
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
       <c r="P20" s="67" t="s">
         <v>175</v>
       </c>
@@ -10855,26 +10855,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="199" t="s">
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="209" t="s">
+      <c r="H22" s="195"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="213" t="s">
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
       <c r="P22" s="71" t="s">
         <v>175</v>
       </c>
@@ -10949,26 +10949,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="199" t="s">
+      <c r="D24" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="199" t="s">
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="200"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="219" t="s">
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="213" t="s">
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="213"/>
-      <c r="O24" s="213"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
       <c r="P24" s="67" t="s">
         <v>175</v>
       </c>
@@ -11043,26 +11043,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="199" t="s">
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="202" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="202"/>
       <c r="L26" s="202"/>
-      <c r="M26" s="220" t="s">
+      <c r="M26" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
+      <c r="N26" s="206"/>
+      <c r="O26" s="206"/>
       <c r="P26" s="67" t="s">
         <v>175</v>
       </c>
@@ -11137,17 +11137,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="199" t="s">
+      <c r="D28" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="199" t="s">
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="204"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="213" t="s">
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205" t="s">
         <v>206</v>
       </c>
       <c r="K28" s="202"/>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="R28" s="202"/>
       <c r="S28" s="202"/>
-      <c r="T28" s="213" t="s">
+      <c r="T28" s="205" t="s">
         <v>208</v>
       </c>
       <c r="U28" s="202"/>
@@ -11231,16 +11231,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="224" t="s">
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="225"/>
-      <c r="I30" s="226"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="189"/>
       <c r="J30" s="202" t="s">
         <v>209</v>
       </c>
@@ -11325,39 +11325,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="222"/>
-      <c r="G32" s="214" t="s">
+      <c r="E32" s="191"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="221"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="217" t="s">
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="210" t="s">
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="211"/>
-      <c r="O32" s="223"/>
+      <c r="N32" s="199"/>
+      <c r="O32" s="200"/>
       <c r="P32" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="214" t="s">
+      <c r="Q32" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="221"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="210" t="s">
+      <c r="R32" s="191"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="198" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="211"/>
-      <c r="V32" s="223"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="200"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11376,39 +11376,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="200"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="199" t="s">
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="200"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="209" t="s">
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="210" t="s">
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="211"/>
-      <c r="O33" s="223"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="200"/>
       <c r="P33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="214" t="s">
+      <c r="Q33" s="190" t="s">
         <v>218</v>
       </c>
-      <c r="R33" s="221"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="210" t="s">
+      <c r="R33" s="191"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="198" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="211"/>
-      <c r="V33" s="223"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="200"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11427,43 +11427,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="199" t="s">
+      <c r="D34" s="194" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="200"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="199" t="s">
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="209" t="s">
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="214" t="s">
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="N34" s="221"/>
-      <c r="O34" s="222"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="192"/>
       <c r="P34" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="214" t="s">
+      <c r="Q34" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="R34" s="221"/>
-      <c r="S34" s="222"/>
-      <c r="T34" s="210" t="s">
+      <c r="R34" s="191"/>
+      <c r="S34" s="192"/>
+      <c r="T34" s="198" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="211"/>
-      <c r="V34" s="223"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="228"/>
-      <c r="Y34" s="228"/>
-      <c r="Z34" s="229"/>
+      <c r="U34" s="199"/>
+      <c r="V34" s="200"/>
+      <c r="W34" s="184"/>
+      <c r="X34" s="185"/>
+      <c r="Y34" s="185"/>
+      <c r="Z34" s="186"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11478,43 +11478,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="224" t="s">
+      <c r="D35" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="225"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="224" t="s">
+      <c r="E35" s="188"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="225"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="214" t="s">
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="221"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="214" t="s">
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="221"/>
-      <c r="O35" s="222"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="192"/>
       <c r="P35" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="214" t="s">
+      <c r="Q35" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="221"/>
-      <c r="S35" s="222"/>
-      <c r="T35" s="230" t="s">
+      <c r="R35" s="191"/>
+      <c r="S35" s="192"/>
+      <c r="T35" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="221"/>
-      <c r="V35" s="222"/>
-      <c r="W35" s="227"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="229"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="192"/>
+      <c r="W35" s="184"/>
+      <c r="X35" s="185"/>
+      <c r="Y35" s="185"/>
+      <c r="Z35" s="186"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12319,29 +12319,29 @@
     </row>
     <row r="60" spans="3:34" ht="14.4" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="133"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="152"/>
+      <c r="P60" s="152"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="133"/>
-      <c r="X60" s="133"/>
-      <c r="Y60" s="133"/>
-      <c r="Z60" s="134"/>
+      <c r="W60" s="152"/>
+      <c r="X60" s="152"/>
+      <c r="Y60" s="152"/>
+      <c r="Z60" s="153"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12395,6 +12395,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12419,115 +12528,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12565,64 +12565,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="254" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="256"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="175"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12635,10 +12635,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
     </row>
     <row r="4" spans="2:32" ht="25.8" thickBot="1">
       <c r="B4" s="2"/>
@@ -12674,71 +12674,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234" t="s">
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234" t="s">
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234" t="s">
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234" t="s">
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234" t="s">
+      <c r="P5" s="257"/>
+      <c r="Q5" s="257"/>
+      <c r="R5" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234" t="s">
+      <c r="S5" s="257"/>
+      <c r="T5" s="257"/>
+      <c r="U5" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="234"/>
-      <c r="W5" s="234"/>
-      <c r="X5" s="236"/>
+      <c r="V5" s="257"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="259"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" thickBot="1">
-      <c r="B6" s="144"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="235"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="235"/>
-      <c r="X6" s="237"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="258"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="258"/>
+      <c r="W6" s="258"/>
+      <c r="X6" s="260"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12763,40 +12763,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="238" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="246" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="241" t="s">
+      <c r="G7" s="247"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="243" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="244" t="s">
+      <c r="J7" s="249"/>
+      <c r="K7" s="250"/>
+      <c r="L7" s="251" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="245"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="241" t="s">
+      <c r="M7" s="252"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="243" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="243"/>
-      <c r="R7" s="247" t="s">
+      <c r="P7" s="249"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="228"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="249"/>
-      <c r="V7" s="250"/>
-      <c r="W7" s="250"/>
-      <c r="X7" s="251"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="232"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="234"/>
+      <c r="X7" s="235"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12811,36 +12811,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="256" t="s">
+      <c r="D8" s="241"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="257"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="247" t="s">
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="247" t="s">
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="241" t="s">
+      <c r="M8" s="238"/>
+      <c r="N8" s="239"/>
+      <c r="O8" s="243" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="247" t="s">
+      <c r="P8" s="244"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="231" t="s">
         <v>235</v>
       </c>
-      <c r="S8" s="254"/>
-      <c r="T8" s="255"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="239"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12901,34 +12901,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="227" t="s">
+      <c r="D10" s="236"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="252"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="247" t="s">
+      <c r="G10" s="236"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="254"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="247" t="s">
+      <c r="J10" s="238"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="254"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="247" t="s">
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="231" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="255"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="239"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13429,6 +13429,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13445,22 +13461,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RYY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\certificate-online\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RYY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE057D-B526-4086-A746-F072E7FA17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFB242-862F-4B5D-9BD3-8D86B9AE8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,17 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="316">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プロジェクト：</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成者：</t>
@@ -57,7 +57,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成日：</t>
@@ -67,14 +67,14 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>機能：</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面項目定義書</t>
@@ -84,14 +84,14 @@
     <rPh sb="2" eb="7">
       <t>コウモクテイギショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>項目名称</t>
     <rPh sb="0" eb="4">
       <t>コウモクメイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日本語名</t>
@@ -101,91 +101,91 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>記号</t>
     <rPh sb="0" eb="2">
       <t>キゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考欄</t>
     <rPh sb="0" eb="3">
       <t>ビコウラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>閉じる</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面タイトル</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lbl</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>btn</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>txt</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード_タイトル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>username_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>password_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>register</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>表示文字「×」</t>
@@ -195,7 +195,7 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>表示文字「ログイン」</t>
@@ -205,21 +205,21 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名_タイトル</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「会員登録」</t>
@@ -232,18 +232,18 @@
     <rPh sb="5" eb="9">
       <t>カイイントウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>名前_タイトル</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>name_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「パスワード」</t>
@@ -253,7 +253,7 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「パスワード再入力」</t>
@@ -266,57 +266,57 @@
     <rPh sb="10" eb="13">
       <t>サイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>姓</t>
     <rPh sb="0" eb="1">
       <t>セイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>名</t>
     <rPh sb="0" eb="1">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>lastname</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>firstname</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日_タイトル</t>
     <rPh sb="0" eb="4">
       <t>セイネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録画面</t>
@@ -326,56 +326,56 @@
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>性別_タイトル</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会社名_タイトル</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>住所_タイトル</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会員登録</t>
@@ -385,11 +385,11 @@
     <rPh sb="2" eb="4">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>birthday_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「生年月日」</t>
@@ -399,43 +399,43 @@
     <rPh sb="5" eb="9">
       <t>セイネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>birthday_year</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>birthday_month</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>birthday_day</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>sel</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>gender_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>male</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>female</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>company_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>company</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「会社」</t>
@@ -445,15 +445,15 @@
     <rPh sb="5" eb="7">
       <t>カイシャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>address_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「住所」</t>
@@ -463,29 +463,29 @@
     <rPh sb="5" eb="7">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性_タイトル</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性_タイトル</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>male_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>rdo</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「Male」</t>
@@ -495,7 +495,7 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「Female」</t>
@@ -505,129 +505,129 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
     <t>female_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名_エラーメッセージ</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>username_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード_エラーメッセージ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>password_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力_タイトル</t>
     <rPh sb="5" eb="8">
       <t>サイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>passwordrepeat_title</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力</t>
     <rPh sb="5" eb="8">
       <t>サイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力_エラーメッセージ</t>
     <rPh sb="5" eb="8">
       <t>サイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>passwordrepeat_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>名前_エラーメッセージ</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>name_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日_エラーメッセージ</t>
     <rPh sb="0" eb="4">
       <t>セイネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>birthday_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>性別_エラーメッセージ</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>gender_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会社名_エラーメッセージ</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>住所_エラーメッセージ</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>company_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>addressr_errormessage</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイプ(HTML)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>password_1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>password_2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>サイズ(半角桁数)</t>
@@ -640,7 +640,7 @@
     <rPh sb="7" eb="8">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -672,14 +672,14 @@
     <rPh sb="5" eb="7">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テストケース部分</t>
     <rPh sb="6" eb="8">
       <t>ブブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>仕様書部分</t>
@@ -689,18 +689,18 @@
     <rPh sb="3" eb="5">
       <t>ブブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ケース</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>条件</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>確認観点</t>
@@ -710,7 +710,7 @@
     <rPh sb="2" eb="4">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実施日</t>
@@ -720,7 +720,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実施者</t>
@@ -730,21 +730,21 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>無条件</t>
     <rPh sb="0" eb="3">
       <t>ムジョウケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">左記仕様書の通りに表示されること
@@ -761,7 +761,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>確認箇所
@@ -775,7 +775,7 @@
     <rPh sb="2" eb="4">
       <t>カショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面レイアウト仕様書</t>
@@ -785,14 +785,14 @@
     <rPh sb="7" eb="10">
       <t>シヨウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面：</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録画面
@@ -803,7 +803,7 @@
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面制御仕様書</t>
@@ -813,11 +813,11 @@
     <rPh sb="2" eb="7">
       <t>セイギョシヨウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>オンラインテスト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面名称</t>
@@ -827,7 +827,7 @@
     <rPh sb="2" eb="4">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>制御内容</t>
@@ -837,19 +837,19 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログイン画面</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>登録画面</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>タイトルステータス</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合、
@@ -883,7 +883,7 @@
     <rPh sb="37" eb="39">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合、
@@ -893,7 +893,7 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合、
@@ -906,53 +906,53 @@
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード変更画面</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>対象外</t>
     <rPh sb="0" eb="3">
       <t>タイショウガイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合</t>
     <rPh sb="5" eb="7">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「新規登録」が表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上記以外</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「会員情報修正」が表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　「パスワード」が表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　表示しない</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　　「パスワード再入力」が表示</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　　表示しない</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>↓↓↓↓↓各ケース共通</t>
@@ -962,11 +962,11 @@
     <rPh sb="9" eb="11">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-A-001</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">左記仕様書の通りに表示されること
@@ -987,15 +987,15 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ケースNo</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-001</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-002</t>
@@ -1050,7 +1050,7 @@
   </si>
   <si>
     <t>UT-USER02-D-001</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-D-002</t>
@@ -1072,25 +1072,25 @@
     <rPh sb="11" eb="13">
       <t>ダケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ショットー２でまとめて打鍵</t>
     <rPh sb="11" eb="13">
       <t>ダケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EB李</t>
     <rPh sb="2" eb="3">
       <t>リ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>COL-PRO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージ定義書（フロントエンド）</t>
@@ -1100,11 +1100,11 @@
     <rPh sb="7" eb="8">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>イベント</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>判断条件</t>
@@ -1114,7 +1114,7 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>判断項目</t>
@@ -1124,19 +1124,19 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>（赤変転）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>エラーコード</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ログインボタンを押下した場合</t>
@@ -1146,7 +1146,7 @@
     <rPh sb="12" eb="14">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>未入力の項目がある場合</t>
@@ -1159,19 +1159,19 @@
     <rPh sb="9" eb="11">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000101</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名を入力してください。</t>
@@ -1181,7 +1181,7 @@
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000102</t>
@@ -1191,7 +1191,7 @@
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名に「@」が含まれていない場合</t>
@@ -1201,15 +1201,15 @@
     <rPh sb="17" eb="19">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000103</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>無効なユーザー名です。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会員登録ボタンを押下した場合</t>
@@ -1225,22 +1225,22 @@
     <rPh sb="12" eb="14">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000201</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Emailが記入されていません。</t>
     <rPh sb="6" eb="8">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1262,7 +1262,7 @@
     <rPh sb="6" eb="8">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1287,11 +1287,11 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>お名前</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1316,11 +1316,11 @@
     <rPh sb="4" eb="6">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>YEAR</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1348,11 +1348,11 @@
     <rPh sb="8" eb="10">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MONTH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1371,7 +1371,7 @@
   </si>
   <si>
     <t>DAY</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1411,7 +1411,7 @@
     <rPh sb="3" eb="5">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Emailに「@」が含まれていない場合</t>
@@ -1421,7 +1421,7 @@
     <rPh sb="17" eb="19">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1440,7 +1440,7 @@
   </si>
   <si>
     <t>無効なメールアドレスです。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力が
@@ -1454,7 +1454,7 @@
     <rPh sb="21" eb="23">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1476,7 +1476,7 @@
     <rPh sb="6" eb="8">
       <t>イッチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日のYEARが1900より小さい場合</t>
@@ -1489,7 +1489,7 @@
     <rPh sb="19" eb="21">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1511,7 +1511,7 @@
     <rPh sb="0" eb="4">
       <t>セイネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード変更画面</t>
@@ -1521,7 +1521,7 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OKボタンを押下した場合</t>
@@ -1531,18 +1531,18 @@
     <rPh sb="10" eb="12">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>旧パスワード</t>
     <rPh sb="0" eb="1">
       <t>キュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000301</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>旧パスワードが記入されていません。</t>
@@ -1552,18 +1552,18 @@
     <rPh sb="7" eb="9">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新しいパスワード</t>
     <rPh sb="0" eb="1">
       <t>アタラ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000302</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新しいパスワードが記入されていません。</t>
@@ -1573,14 +1573,14 @@
     <rPh sb="9" eb="11">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード（再入力）</t>
     <rPh sb="6" eb="9">
       <t>サイニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000303</t>
@@ -1596,15 +1596,15 @@
     <rPh sb="14" eb="16">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OKボタンを押下した場合</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力がパスワードと一致しない場合</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CUSER000304</t>
@@ -1612,7 +1612,7 @@
   <si>
     <t>パスワードが正しくありません
 入力し直してください。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メッセージ定義書（バックエンド）</t>
@@ -1622,7 +1622,7 @@
     <rPh sb="7" eb="8">
       <t>ショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>判断項目（赤変転）</t>
@@ -1635,7 +1635,7 @@
     <rPh sb="5" eb="8">
       <t>アカヘンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名とパスワードが対応しない場合</t>
@@ -1648,11 +1648,11 @@
     <rPh sb="17" eb="19">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名およびパスワード</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1668,11 +1668,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ユーザー名またはパスワードが間違っています。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Emailが既に使われた場合</t>
@@ -1685,7 +1685,7 @@
     <rPh sb="12" eb="14">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CU01006</t>
@@ -1695,7 +1695,7 @@
     <rPh sb="10" eb="11">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>旧パスワードが異なる場合</t>
@@ -1708,14 +1708,14 @@
     <rPh sb="10" eb="12">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CT01004</t>
   </si>
   <si>
     <t>ユーザー名称</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合：
@@ -1737,11 +1737,11 @@
     <rPh sb="23" eb="25">
       <t>イガイカイインジョウホウシュウセイヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>新規登録の場合：
@@ -1751,11 +1751,11 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-C-001</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-C-002</t>
@@ -1771,32 +1771,32 @@
     <rPh sb="9" eb="11">
       <t>カッセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「ユーザー名称」が不活性</t>
     <rPh sb="9" eb="12">
       <t>フカッセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「生年月日」が活性</t>
     <rPh sb="7" eb="9">
       <t>カッセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「ユ生年月日」が不活性</t>
     <rPh sb="8" eb="11">
       <t>フカッセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-001</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-003</t>
@@ -1872,7 +1872,7 @@
     <rPh sb="14" eb="16">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>左記のエラーメッセージが表示されない</t>
@@ -1882,7 +1882,7 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>左記項目が未入力の場合</t>
@@ -1901,7 +1901,7 @@
     <rPh sb="9" eb="11">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>左記のエラーメッセージが表示される</t>
@@ -1911,7 +1911,7 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Emailに「@」が含まれている場合</t>
@@ -1921,7 +1921,7 @@
     <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力が
@@ -1938,7 +1938,7 @@
     <rPh sb="21" eb="23">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード再入力が
@@ -1955,7 +1955,7 @@
     <rPh sb="21" eb="23">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日のYEARが1900より小さい場合</t>
@@ -1971,7 +1971,7 @@
     <rPh sb="19" eb="21">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>生年月日のYEARが1900以上の場合</t>
@@ -1987,22 +1987,22 @@
     <rPh sb="17" eb="19">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-022</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-023</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-024</t>
   </si>
   <si>
     <t>Emailが既に使われた場合</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Emailが未使用の場合</t>
@@ -2012,7 +2012,7 @@
     <rPh sb="10" eb="12">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>仕様書変更よりケース不良</t>
@@ -2025,7 +2025,7 @@
     <rPh sb="10" eb="12">
       <t>フリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>不具合：画面崩れ</t>
@@ -2038,7 +2038,7 @@
     <rPh sb="6" eb="7">
       <t>クズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2070,19 +2070,19 @@
     <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-003</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-006</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-009</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>固定文字「名前」</t>
@@ -2092,43 +2092,43 @@
     <rPh sb="5" eb="7">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-012</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-016</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-021</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-022</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-024</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-027</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-030</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-033</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-034</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>表示文字「提出」</t>
@@ -2141,77 +2141,122 @@
     <rPh sb="5" eb="7">
       <t>テイシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ショット-1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EB李</t>
     <rPh sb="2" eb="3">
       <t>リ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-002</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-E-002ケースに参照</t>
     <rPh sb="19" eb="21">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-004</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mail</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-007</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ショット-2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ショット-3</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-017</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UT-USER02-B-023</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>team-b李</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>仕様書変更よりケース不良</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(YY)</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EB李(YY)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EB李(YY)</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2385,6 +2430,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3119,7 +3171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3130,19 +3182,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3161,8 +3213,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3174,19 +3226,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3204,15 +3256,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3288,37 +3340,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,19 +3403,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3381,16 +3433,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3398,52 +3465,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3455,90 +3528,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3548,14 +3558,101 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3566,65 +3663,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3635,160 +3687,208 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3800,10 +3900,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3812,16 +3912,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,51 +3927,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4304,26 +4358,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4336,37 +4390,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="105"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="113">
         <v>45069</v>
       </c>
-      <c r="M3" s="109"/>
+      <c r="M3" s="114"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4439,63 +4493,63 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="115" t="s">
+      <c r="R7" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10" spans="2:28" ht="25.2">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="12" spans="2:28" ht="15.6">
       <c r="B12" s="32"/>
@@ -4503,42 +4557,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="99"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="101"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4552,18 +4606,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="101"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="101"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4578,18 +4632,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="101"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="101"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4602,12 +4656,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="112"/>
+      <c r="G25" s="100"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="101"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4754,6 +4808,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4764,23 +4833,8 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <colBreaks count="3" manualBreakCount="3">
@@ -4799,8 +4853,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K19" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -4823,59 +4877,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" ht="88.8" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4885,10 +4939,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4903,57 +4957,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="137" t="s">
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="144"/>
+      <c r="D6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -4998,12 +5052,12 @@
       </c>
       <c r="N7" s="124"/>
       <c r="O7" s="124"/>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5024,32 +5078,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116">
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="118"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="125"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5070,32 +5124,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="117" t="s">
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="125">
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="116">
         <v>5</v>
       </c>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="125" t="s">
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="148"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="128"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>287</v>
@@ -5123,30 +5177,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="121" t="s">
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="125">
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="116">
         <v>50</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="148"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="128"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>305</v>
@@ -5169,30 +5223,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116">
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="118"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="125"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5213,32 +5267,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="125" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="117" t="s">
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="125">
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="116">
         <v>10</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="125" t="s">
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="148"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="128"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>288</v>
@@ -5264,30 +5318,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="149" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="121" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="125">
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="116">
         <v>50</v>
       </c>
-      <c r="N13" s="126"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="148"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="128"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>307</v>
@@ -5310,30 +5364,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="154" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="117" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="116">
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="125"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5352,32 +5406,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="149" t="s">
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="121" t="s">
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="125">
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="116">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="125" t="s">
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="128"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>289</v>
@@ -5403,30 +5457,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="149" t="s">
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="121" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="125">
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="116">
         <v>50</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="148"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="128"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>141</v>
@@ -5440,8 +5494,8 @@
       <c r="Y16" s="96">
         <v>45069</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>312</v>
+      <c r="Z16" s="261" t="s">
+        <v>313</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5449,30 +5503,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="154" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="117" t="s">
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116">
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="118"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="125"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>142</v>
@@ -5491,32 +5545,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="125" t="s">
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="117" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="125">
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="116">
         <v>6</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="125" t="s">
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="148"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="128"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>291</v>
@@ -5542,30 +5596,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="125" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="121" t="s">
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="125">
+      <c r="K19" s="121"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="116">
         <v>50</v>
       </c>
-      <c r="N19" s="126"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="148"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="128"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>143</v>
@@ -5584,30 +5638,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="125" t="s">
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="121" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="125">
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="116">
         <v>50</v>
       </c>
-      <c r="N20" s="126"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="148"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="128"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>144</v>
@@ -5626,30 +5680,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="116">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="118"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="125"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>145</v>
@@ -5668,32 +5722,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="116">
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="118"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="125"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>292</v>
@@ -5719,30 +5773,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="116">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="118"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="125"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>310</v>
@@ -5766,30 +5820,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="116">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="118"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="125"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>146</v>
@@ -5813,30 +5867,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116">
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="125"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>147</v>
@@ -5860,30 +5914,30 @@
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116" t="s">
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117" t="s">
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="116">
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="119">
         <v>50</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="125"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>148</v>
@@ -5904,32 +5958,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="119">
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="126">
         <v>10</v>
       </c>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="116" t="s">
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="118"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="125"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>293</v>
@@ -5955,32 +6009,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
       <c r="M28" s="124">
         <v>4</v>
       </c>
       <c r="N28" s="124"/>
       <c r="O28" s="124"/>
-      <c r="P28" s="119" t="s">
+      <c r="P28" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="120"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="127"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>294</v>
@@ -6006,32 +6060,32 @@
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="124"/>
-      <c r="P29" s="119" t="s">
+      <c r="P29" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="120"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>311</v>
@@ -6045,8 +6099,8 @@
       <c r="Y29" s="96">
         <v>45069</v>
       </c>
-      <c r="Z29" s="19" t="s">
-        <v>312</v>
+      <c r="Z29" s="262" t="s">
+        <v>314</v>
       </c>
       <c r="AA29" s="19"/>
       <c r="AB29" s="1" t="s">
@@ -6057,32 +6111,32 @@
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
       <c r="M30" s="124">
         <v>6</v>
       </c>
       <c r="N30" s="124"/>
       <c r="O30" s="124"/>
-      <c r="P30" s="119" t="s">
+      <c r="P30" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="120"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>295</v>
@@ -6108,32 +6162,32 @@
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="124" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="124"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="119" t="s">
+      <c r="P31" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="127"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>149</v>
@@ -6148,7 +6202,7 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AA31" s="19"/>
       <c r="AB31" s="1" t="s">
@@ -6159,30 +6213,30 @@
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="116">
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="125"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>150</v>
@@ -6203,32 +6257,32 @@
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="125" t="s">
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="117" t="s">
+      <c r="H33" s="117"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="125">
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="116">
         <v>4</v>
       </c>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="119" t="s">
+      <c r="N33" s="117"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="120"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="127"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>296</v>
@@ -6254,30 +6308,30 @@
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="121" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="116">
+      <c r="K34" s="121"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="120"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="127"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>151</v>
@@ -6292,40 +6346,40 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA34" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="AA34" s="19" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="27.6">
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="116">
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="118"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="125"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>152</v>
@@ -6346,32 +6400,32 @@
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="116">
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="119" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="120"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>297</v>
@@ -6397,30 +6451,30 @@
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="121" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="116">
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="120"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="127"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>153</v>
@@ -6441,30 +6495,30 @@
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="116">
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="118"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="125"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>154</v>
@@ -6485,32 +6539,32 @@
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="125" t="s">
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="121" t="s">
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="125" t="s">
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="125" t="s">
+      <c r="N39" s="117"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="148"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="128"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>298</v>
@@ -6534,32 +6588,32 @@
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="125" t="s">
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="121" t="s">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="125" t="s">
+      <c r="K40" s="121"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="126"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="125" t="s">
+      <c r="N40" s="117"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="148"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="128"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>299</v>
@@ -6583,22 +6637,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="148"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="128"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6609,22 +6663,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="148"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="128"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6635,22 +6689,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="148"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="128"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6661,22 +6715,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="148"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="128"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6687,22 +6741,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="148"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="128"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6713,22 +6767,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="148"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="128"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6739,22 +6793,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="126"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="148"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="128"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6765,22 +6819,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="148"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="128"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6791,22 +6845,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="148"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="128"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6817,22 +6871,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="148"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="128"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6843,22 +6897,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="120"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="126"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="127"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6869,22 +6923,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="120"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="126"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="126"/>
+      <c r="S52" s="127"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6895,22 +6949,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="120"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="127"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6920,22 +6974,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="120"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="127"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6945,155 +6999,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="120"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="126"/>
+      <c r="S55" s="127"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="120"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="127"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="119"/>
-      <c r="S57" s="120"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="126"/>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="127"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="120"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="127"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="120"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="126"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="126"/>
+      <c r="S59" s="127"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="120"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="126"/>
+      <c r="Q60" s="126"/>
+      <c r="R60" s="126"/>
+      <c r="S60" s="127"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="119"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="119"/>
-      <c r="S61" s="120"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="126"/>
+      <c r="P61" s="126"/>
+      <c r="Q61" s="126"/>
+      <c r="R61" s="126"/>
+      <c r="S61" s="127"/>
     </row>
     <row r="62" spans="3:27" ht="14.4" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="153"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="133"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="134"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7110,6 +7164,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7134,276 +7456,8 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7436,71 +7490,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7517,53 +7571,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7588,28 +7642,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7624,24 +7678,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="169"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="161"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7700,24 +7754,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165" t="s">
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="167"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7776,24 +7830,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="158" t="s">
+      <c r="E12" s="163"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7822,10 +7876,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="172"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7848,10 +7902,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="160"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="164"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8434,22 +8488,22 @@
     </row>
     <row r="37" spans="3:27" ht="14.4" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152"/>
-      <c r="S37" s="153"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="134"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8593,21 +8647,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8624,8 +8663,23 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8658,71 +8712,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="157">
         <v>45069</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8740,53 +8794,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="137" t="s">
+      <c r="H5" s="148"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="137" t="s">
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="143"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="153"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="14.4" thickBot="1">
-      <c r="C6" s="134"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8811,28 +8865,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="164"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8847,24 +8901,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="158" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="164"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="164"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8923,16 +8977,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158" t="s">
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="164"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="178" t="s">
         <v>121</v>
       </c>
@@ -9004,11 +9058,11 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" s="183"/>
-      <c r="G12" s="158" t="s">
+      <c r="G12" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="164"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="178" t="s">
         <v>122</v>
       </c>
@@ -9075,24 +9129,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="158" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="158" t="s">
+      <c r="H14" s="163"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="164"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9121,10 +9175,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="157"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="172"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9147,10 +9201,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="160"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9733,22 +9787,22 @@
     </row>
     <row r="39" spans="3:27" ht="14.4" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
-      <c r="S39" s="153"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9874,18 +9928,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9902,14 +9950,20 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" orientation="portrait" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -9953,84 +10007,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="14.4" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="141"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
     </row>
     <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="156"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="176">
+      <c r="R3" s="157">
         <v>45069</v>
       </c>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="177"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10045,75 +10099,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221" t="s">
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221" t="s">
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="223" t="s">
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="221" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="221" t="s">
+      <c r="Q5" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221" t="s">
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="221"/>
-      <c r="V5" s="221"/>
-      <c r="W5" s="221" t="s">
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="229"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="194"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="14.4" thickBot="1">
-      <c r="C6" s="220"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="230"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+      <c r="Z6" s="195"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10138,43 +10192,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="215" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="215" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="198"/>
       <c r="P7" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="215" t="s">
+      <c r="Q7" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="216" t="s">
+      <c r="R7" s="197"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="216"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="210"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="207"/>
+      <c r="Z7" s="208"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10189,21 +10243,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="194" t="s">
+      <c r="D8" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="194" t="s">
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197" t="s">
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
       <c r="M8" s="202" t="s">
         <v>19</v>
       </c>
@@ -10240,26 +10294,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="194" t="s">
+      <c r="D9" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="194" t="s">
+      <c r="E9" s="200"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
       <c r="J9" s="202" t="s">
         <v>180</v>
       </c>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
-      <c r="M9" s="218" t="s">
+      <c r="M9" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="203"/>
-      <c r="O9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="205"/>
       <c r="P9" s="67" t="s">
         <v>175</v>
       </c>
@@ -10291,26 +10345,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="190" t="s">
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="201" t="s">
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="214" t="s">
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
       <c r="P10" s="67" t="s">
         <v>175</v>
       </c>
@@ -10324,10 +10378,10 @@
       </c>
       <c r="U10" s="202"/>
       <c r="V10" s="202"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="211"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="212"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>250</v>
@@ -10385,26 +10439,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="194" t="s">
+      <c r="E12" s="200"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="s">
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="205" t="s">
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
       <c r="P12" s="67" t="s">
         <v>175</v>
       </c>
@@ -10418,10 +10472,10 @@
       </c>
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="211"/>
+      <c r="W12" s="210"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="212"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>251</v>
@@ -10479,26 +10533,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="194" t="s">
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197" t="s">
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="205" t="s">
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
       <c r="P14" s="67" t="s">
         <v>175</v>
       </c>
@@ -10573,26 +10627,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197" t="s">
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="205" t="s">
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
       <c r="P16" s="67" t="s">
         <v>175</v>
       </c>
@@ -10667,26 +10721,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="194" t="s">
+      <c r="D18" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="194" t="s">
+      <c r="E18" s="200"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197" t="s">
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="205" t="s">
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="213" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
       <c r="P18" s="67" t="s">
         <v>175</v>
       </c>
@@ -10761,26 +10815,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="194" t="s">
+      <c r="D20" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="194" t="s">
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197" t="s">
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="205" t="s">
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="213" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
       <c r="P20" s="67" t="s">
         <v>175</v>
       </c>
@@ -10855,26 +10909,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="194" t="s">
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197" t="s">
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="205" t="s">
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
       <c r="P22" s="71" t="s">
         <v>175</v>
       </c>
@@ -10949,26 +11003,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="194" t="s">
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="207" t="s">
+      <c r="H24" s="200"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="219" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="205" t="s">
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
       <c r="P24" s="67" t="s">
         <v>175</v>
       </c>
@@ -11043,26 +11097,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="194" t="s">
+      <c r="E26" s="200"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="201"/>
       <c r="J26" s="202" t="s">
         <v>203</v>
       </c>
       <c r="K26" s="202"/>
       <c r="L26" s="202"/>
-      <c r="M26" s="206" t="s">
+      <c r="M26" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
       <c r="P26" s="67" t="s">
         <v>175</v>
       </c>
@@ -11137,17 +11191,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="194" t="s">
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205" t="s">
+      <c r="H28" s="204"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="213" t="s">
         <v>206</v>
       </c>
       <c r="K28" s="202"/>
@@ -11165,7 +11219,7 @@
       </c>
       <c r="R28" s="202"/>
       <c r="S28" s="202"/>
-      <c r="T28" s="205" t="s">
+      <c r="T28" s="213" t="s">
         <v>208</v>
       </c>
       <c r="U28" s="202"/>
@@ -11231,16 +11285,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="187" t="s">
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="224" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="189"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="226"/>
       <c r="J30" s="202" t="s">
         <v>209</v>
       </c>
@@ -11325,39 +11379,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="190" t="s">
+      <c r="D32" s="214" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="190" t="s">
+      <c r="E32" s="221"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="201" t="s">
+      <c r="H32" s="221"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="198" t="s">
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="199"/>
-      <c r="O32" s="200"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="223"/>
       <c r="P32" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="190" t="s">
+      <c r="Q32" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="R32" s="191"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="198" t="s">
+      <c r="R32" s="221"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="210" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="199"/>
-      <c r="V32" s="200"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="223"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11376,39 +11430,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="194" t="s">
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197" t="s">
+      <c r="H33" s="200"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="198" t="s">
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="210" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="199"/>
-      <c r="O33" s="200"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="223"/>
       <c r="P33" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="190" t="s">
+      <c r="Q33" s="214" t="s">
         <v>218</v>
       </c>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="198" t="s">
+      <c r="R33" s="221"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="U33" s="199"/>
-      <c r="V33" s="200"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="223"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11427,43 +11481,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="194" t="s">
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="190" t="s">
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
+      <c r="M34" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N34" s="191"/>
-      <c r="O34" s="192"/>
+      <c r="N34" s="221"/>
+      <c r="O34" s="222"/>
       <c r="P34" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="190" t="s">
+      <c r="Q34" s="214" t="s">
         <v>221</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="198" t="s">
+      <c r="R34" s="221"/>
+      <c r="S34" s="222"/>
+      <c r="T34" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="199"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="184"/>
-      <c r="X34" s="185"/>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="186"/>
+      <c r="U34" s="211"/>
+      <c r="V34" s="223"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="229"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11478,43 +11532,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="224" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="187" t="s">
+      <c r="E35" s="225"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190" t="s">
+      <c r="H35" s="225"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="190" t="s">
+      <c r="K35" s="221"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="214" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="192"/>
+      <c r="N35" s="221"/>
+      <c r="O35" s="222"/>
       <c r="P35" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="190" t="s">
+      <c r="Q35" s="214" t="s">
         <v>225</v>
       </c>
-      <c r="R35" s="191"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="193" t="s">
+      <c r="R35" s="221"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="230" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="185"/>
-      <c r="Y35" s="185"/>
-      <c r="Z35" s="186"/>
+      <c r="U35" s="221"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="227"/>
+      <c r="X35" s="228"/>
+      <c r="Y35" s="228"/>
+      <c r="Z35" s="229"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12319,29 +12373,29 @@
     </row>
     <row r="60" spans="3:34" ht="14.4" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="152"/>
-      <c r="Z60" s="153"/>
+      <c r="W60" s="133"/>
+      <c r="X60" s="133"/>
+      <c r="Y60" s="133"/>
+      <c r="Z60" s="134"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12395,29 +12449,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12442,94 +12559,31 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -12565,64 +12619,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="231" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="256"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="233"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
     </row>
     <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="174" t="s">
+      <c r="L3" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12635,10 +12689,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
     </row>
     <row r="4" spans="2:32" ht="25.8" thickBot="1">
       <c r="B4" s="2"/>
@@ -12674,71 +12728,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257" t="s">
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257" t="s">
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257" t="s">
+      <c r="M5" s="234"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257" t="s">
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234" t="s">
         <v>171</v>
       </c>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257" t="s">
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="259"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="236"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" thickBot="1">
-      <c r="B6" s="134"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="260"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="237"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12763,40 +12817,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="C7" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="246" t="s">
+      <c r="D7" s="239"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="247"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="243" t="s">
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="251" t="s">
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="252"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="243" t="s">
+      <c r="M7" s="245"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="231" t="s">
+      <c r="P7" s="242"/>
+      <c r="Q7" s="243"/>
+      <c r="R7" s="247" t="s">
         <v>232</v>
       </c>
-      <c r="S7" s="185"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235"/>
+      <c r="S7" s="228"/>
+      <c r="T7" s="248"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="250"/>
+      <c r="W7" s="250"/>
+      <c r="X7" s="251"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12811,36 +12865,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="240" t="s">
+      <c r="D8" s="257"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="256" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="231" t="s">
+      <c r="G8" s="257"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="231" t="s">
+      <c r="J8" s="254"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="247" t="s">
         <v>184</v>
       </c>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239"/>
-      <c r="O8" s="243" t="s">
+      <c r="M8" s="254"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="241" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="245"/>
-      <c r="R8" s="231" t="s">
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="S8" s="238"/>
-      <c r="T8" s="239"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="255"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12901,34 +12955,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="184" t="s">
+      <c r="D10" s="252"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="227" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="231" t="s">
+      <c r="G10" s="252"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="231" t="s">
+      <c r="J10" s="254"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="247" t="s">
         <v>214</v>
       </c>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="231" t="s">
+      <c r="M10" s="254"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="247" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="231"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="239"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="255"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13429,22 +13483,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13461,8 +13499,24 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" verticalDpi="90" r:id="rId1"/>
 </worksheet>
